--- a/Projects/CARLSBERG/Data/Template.xlsx
+++ b/Projects/CARLSBERG/Data/Template.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="56">
   <si>
     <t xml:space="preserve">kpi_name</t>
   </si>
@@ -57,19 +57,28 @@
     <t xml:space="preserve">FSOS_OWN_MAN_ALL_CAT</t>
   </si>
   <si>
-    <t xml:space="preserve">FSOS_ALL_MAN_ALL_CAT</t>
+    <t xml:space="preserve">FSOS_OWN_MAN_ALL_CAT_ALL_SCENETYPE</t>
   </si>
   <si>
-    <t xml:space="preserve">FSOS_ALL_MAN_ALL_CAT_ALL_BRAND</t>
+    <t xml:space="preserve">FSOS_ALL_MAN_ALL_CAT_ALL_SCENETYPE</t>
   </si>
   <si>
-    <t xml:space="preserve">FSOS_ALL_MAN_ALL_CAT_ALL_BRAND_ALL_SKU</t>
+    <t xml:space="preserve">FSOS_ALL_MAN_ALL_CAT_ALL_SCENETYPE_ALL_BRAND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FSOS_ALL_MAN_ALL_CAT_ALL_SCENETYPE_ALL_BRAND_ALL_SKU</t>
   </si>
   <si>
     <t xml:space="preserve">COUNT_SKU_FACINGS_IN_FLOOR_STACK</t>
   </si>
   <si>
     <t xml:space="preserve">Count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COUNT_SKU_IN_STOCK</t>
   </si>
   <si>
     <t xml:space="preserve">kpi_parent</t>
@@ -87,6 +96,9 @@
     <t xml:space="preserve">param_4</t>
   </si>
   <si>
+    <t xml:space="preserve">param_5</t>
+  </si>
+  <si>
     <t xml:space="preserve">param_1_value</t>
   </si>
   <si>
@@ -97,6 +109,9 @@
   </si>
   <si>
     <t xml:space="preserve">param_4_value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">param_5_value</t>
   </si>
   <si>
     <t xml:space="preserve">numerator</t>
@@ -114,19 +129,19 @@
     <t xml:space="preserve">manufacturer</t>
   </si>
   <si>
-    <t xml:space="preserve">Lion</t>
+    <t xml:space="preserve">Diageo</t>
   </si>
   <si>
     <t xml:space="preserve">store</t>
   </si>
   <si>
-    <t xml:space="preserve">off premise, on premise</t>
+    <t xml:space="preserve">Off Trade, On Trade</t>
   </si>
   <si>
     <t xml:space="preserve">scene_type</t>
   </si>
   <si>
-    <t xml:space="preserve">EXTERNAL TARGET</t>
+    <t xml:space="preserve">from_external_targets</t>
   </si>
   <si>
     <t xml:space="preserve">brand</t>
@@ -138,10 +153,10 @@
     <t xml:space="preserve">category</t>
   </si>
   <si>
-    <t xml:space="preserve">COUNT_SKU_FACINGS_BEER_TAP_CATEGORY_OWN_MANUFACTURER</t>
+    <t xml:space="preserve">COUNT_SKU_FACINGS_FLOOR_STACK</t>
   </si>
   <si>
-    <t xml:space="preserve">on premise</t>
+    <t xml:space="preserve">Floor Stack</t>
   </si>
   <si>
     <t xml:space="preserve">stacking</t>
@@ -166,6 +181,15 @@
   </si>
   <si>
     <t xml:space="preserve">ean_codes_to_exclude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FSOS_ALL_MAN_ALL_CAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FSOS_ALL_MAN_ALL_CAT_ALL_BRAND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FSOS_ALL_MAN_ALL_CAT_ALL_BRAND_ALL_SKU</t>
   </si>
 </sst>
 </file>
@@ -295,7 +319,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="32">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -304,8 +328,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -320,39 +344,63 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -381,6 +429,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -473,20 +525,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
+      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="119.872448979592"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="7" min="4" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="23.8928571428571"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="112.178571428571"/>
+    <col collapsed="false" hidden="false" max="7" min="4" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="22.0051020408163"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -592,20 +643,40 @@
       <c r="D10" s="5"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="B11" s="3"/>
       <c r="C11" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D11" s="5"/>
     </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="5"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:B10"/>
+  <mergeCells count="2">
+    <mergeCell ref="B2:B11"/>
+    <mergeCell ref="B12:B13"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -622,1114 +693,111 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMH11"/>
+  <dimension ref="1:13"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="I12" activeCellId="0" sqref="I12"/>
+      <selection pane="topRight" activeCell="D19" activeCellId="0" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="8" width="43.0612244897959"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="8" width="61.015306122449"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="8" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="8" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="8" width="7.96428571428571"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="8" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="8" width="18.9183673469388"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="8" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="12" min="11" style="8" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="8" width="19.1683673469388"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="8" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="1022" min="15" style="8" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="1025" min="1023" style="0" width="7.96428571428571"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="8" width="51.2959183673469"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="8" width="60.3418367346939"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="8" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="8" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="8" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="8" width="13.5"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="8" width="29.4285714285714"/>
+    <col collapsed="false" hidden="false" max="12" min="11" style="8" width="13.5"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="8" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="17" min="15" style="8" width="19.7091836734694"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="8" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="1025" min="19" style="8" width="10.530612244898"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="C1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="D1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="E1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="F1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="G1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="H1" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="I1" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="J1" s="9" t="s">
         <v>27</v>
       </c>
+      <c r="K1" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>30</v>
+      </c>
       <c r="N1" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="O1" s="0"/>
-      <c r="P1" s="0"/>
-      <c r="Q1" s="0"/>
-      <c r="R1" s="0"/>
-      <c r="S1" s="0"/>
-      <c r="T1" s="0"/>
-      <c r="U1" s="0"/>
-      <c r="V1" s="0"/>
-      <c r="W1" s="0"/>
-      <c r="X1" s="0"/>
-      <c r="Y1" s="0"/>
-      <c r="Z1" s="0"/>
-      <c r="AA1" s="0"/>
-      <c r="AB1" s="0"/>
-      <c r="AC1" s="0"/>
-      <c r="AD1" s="0"/>
-      <c r="AE1" s="0"/>
-      <c r="AF1" s="0"/>
-      <c r="AG1" s="0"/>
-      <c r="AH1" s="0"/>
-      <c r="AI1" s="0"/>
-      <c r="AJ1" s="0"/>
-      <c r="AK1" s="0"/>
-      <c r="AL1" s="0"/>
-      <c r="AM1" s="0"/>
-      <c r="AN1" s="0"/>
-      <c r="AO1" s="0"/>
-      <c r="AP1" s="0"/>
-      <c r="AQ1" s="0"/>
-      <c r="AR1" s="0"/>
-      <c r="AS1" s="0"/>
-      <c r="AT1" s="0"/>
-      <c r="AU1" s="0"/>
-      <c r="AV1" s="0"/>
-      <c r="AW1" s="0"/>
-      <c r="AX1" s="0"/>
-      <c r="AY1" s="0"/>
-      <c r="AZ1" s="0"/>
-      <c r="BA1" s="0"/>
-      <c r="BB1" s="0"/>
-      <c r="BC1" s="0"/>
-      <c r="BD1" s="0"/>
-      <c r="BE1" s="0"/>
-      <c r="BF1" s="0"/>
-      <c r="BG1" s="0"/>
-      <c r="BH1" s="0"/>
-      <c r="BI1" s="0"/>
-      <c r="BJ1" s="0"/>
-      <c r="BK1" s="0"/>
-      <c r="BL1" s="0"/>
-      <c r="BM1" s="0"/>
-      <c r="BN1" s="0"/>
-      <c r="BO1" s="0"/>
-      <c r="BP1" s="0"/>
-      <c r="BQ1" s="0"/>
-      <c r="BR1" s="0"/>
-      <c r="BS1" s="0"/>
-      <c r="BT1" s="0"/>
-      <c r="BU1" s="0"/>
-      <c r="BV1" s="0"/>
-      <c r="BW1" s="0"/>
-      <c r="BX1" s="0"/>
-      <c r="BY1" s="0"/>
-      <c r="BZ1" s="0"/>
-      <c r="CA1" s="0"/>
-      <c r="CB1" s="0"/>
-      <c r="CC1" s="0"/>
-      <c r="CD1" s="0"/>
-      <c r="CE1" s="0"/>
-      <c r="CF1" s="0"/>
-      <c r="CG1" s="0"/>
-      <c r="CH1" s="0"/>
-      <c r="CI1" s="0"/>
-      <c r="CJ1" s="0"/>
-      <c r="CK1" s="0"/>
-      <c r="CL1" s="0"/>
-      <c r="CM1" s="0"/>
-      <c r="CN1" s="0"/>
-      <c r="CO1" s="0"/>
-      <c r="CP1" s="0"/>
-      <c r="CQ1" s="0"/>
-      <c r="CR1" s="0"/>
-      <c r="CS1" s="0"/>
-      <c r="CT1" s="0"/>
-      <c r="CU1" s="0"/>
-      <c r="CV1" s="0"/>
-      <c r="CW1" s="0"/>
-      <c r="CX1" s="0"/>
-      <c r="CY1" s="0"/>
-      <c r="CZ1" s="0"/>
-      <c r="DA1" s="0"/>
-      <c r="DB1" s="0"/>
-      <c r="DC1" s="0"/>
-      <c r="DD1" s="0"/>
-      <c r="DE1" s="0"/>
-      <c r="DF1" s="0"/>
-      <c r="DG1" s="0"/>
-      <c r="DH1" s="0"/>
-      <c r="DI1" s="0"/>
-      <c r="DJ1" s="0"/>
-      <c r="DK1" s="0"/>
-      <c r="DL1" s="0"/>
-      <c r="DM1" s="0"/>
-      <c r="DN1" s="0"/>
-      <c r="DO1" s="0"/>
-      <c r="DP1" s="0"/>
-      <c r="DQ1" s="0"/>
-      <c r="DR1" s="0"/>
-      <c r="DS1" s="0"/>
-      <c r="DT1" s="0"/>
-      <c r="DU1" s="0"/>
-      <c r="DV1" s="0"/>
-      <c r="DW1" s="0"/>
-      <c r="DX1" s="0"/>
-      <c r="DY1" s="0"/>
-      <c r="DZ1" s="0"/>
-      <c r="EA1" s="0"/>
-      <c r="EB1" s="0"/>
-      <c r="EC1" s="0"/>
-      <c r="ED1" s="0"/>
-      <c r="EE1" s="0"/>
-      <c r="EF1" s="0"/>
-      <c r="EG1" s="0"/>
-      <c r="EH1" s="0"/>
-      <c r="EI1" s="0"/>
-      <c r="EJ1" s="0"/>
-      <c r="EK1" s="0"/>
-      <c r="EL1" s="0"/>
-      <c r="EM1" s="0"/>
-      <c r="EN1" s="0"/>
-      <c r="EO1" s="0"/>
-      <c r="EP1" s="0"/>
-      <c r="EQ1" s="0"/>
-      <c r="ER1" s="0"/>
-      <c r="ES1" s="0"/>
-      <c r="ET1" s="0"/>
-      <c r="EU1" s="0"/>
-      <c r="EV1" s="0"/>
-      <c r="EW1" s="0"/>
-      <c r="EX1" s="0"/>
-      <c r="EY1" s="0"/>
-      <c r="EZ1" s="0"/>
-      <c r="FA1" s="0"/>
-      <c r="FB1" s="0"/>
-      <c r="FC1" s="0"/>
-      <c r="FD1" s="0"/>
-      <c r="FE1" s="0"/>
-      <c r="FF1" s="0"/>
-      <c r="FG1" s="0"/>
-      <c r="FH1" s="0"/>
-      <c r="FI1" s="0"/>
-      <c r="FJ1" s="0"/>
-      <c r="FK1" s="0"/>
-      <c r="FL1" s="0"/>
-      <c r="FM1" s="0"/>
-      <c r="FN1" s="0"/>
-      <c r="FO1" s="0"/>
-      <c r="FP1" s="0"/>
-      <c r="FQ1" s="0"/>
-      <c r="FR1" s="0"/>
-      <c r="FS1" s="0"/>
-      <c r="FT1" s="0"/>
-      <c r="FU1" s="0"/>
-      <c r="FV1" s="0"/>
-      <c r="FW1" s="0"/>
-      <c r="FX1" s="0"/>
-      <c r="FY1" s="0"/>
-      <c r="FZ1" s="0"/>
-      <c r="GA1" s="0"/>
-      <c r="GB1" s="0"/>
-      <c r="GC1" s="0"/>
-      <c r="GD1" s="0"/>
-      <c r="GE1" s="0"/>
-      <c r="GF1" s="0"/>
-      <c r="GG1" s="0"/>
-      <c r="GH1" s="0"/>
-      <c r="GI1" s="0"/>
-      <c r="GJ1" s="0"/>
-      <c r="GK1" s="0"/>
-      <c r="GL1" s="0"/>
-      <c r="GM1" s="0"/>
-      <c r="GN1" s="0"/>
-      <c r="GO1" s="0"/>
-      <c r="GP1" s="0"/>
-      <c r="GQ1" s="0"/>
-      <c r="GR1" s="0"/>
-      <c r="GS1" s="0"/>
-      <c r="GT1" s="0"/>
-      <c r="GU1" s="0"/>
-      <c r="GV1" s="0"/>
-      <c r="GW1" s="0"/>
-      <c r="GX1" s="0"/>
-      <c r="GY1" s="0"/>
-      <c r="GZ1" s="0"/>
-      <c r="HA1" s="0"/>
-      <c r="HB1" s="0"/>
-      <c r="HC1" s="0"/>
-      <c r="HD1" s="0"/>
-      <c r="HE1" s="0"/>
-      <c r="HF1" s="0"/>
-      <c r="HG1" s="0"/>
-      <c r="HH1" s="0"/>
-      <c r="HI1" s="0"/>
-      <c r="HJ1" s="0"/>
-      <c r="HK1" s="0"/>
-      <c r="HL1" s="0"/>
-      <c r="HM1" s="0"/>
-      <c r="HN1" s="0"/>
-      <c r="HO1" s="0"/>
-      <c r="HP1" s="0"/>
-      <c r="HQ1" s="0"/>
-      <c r="HR1" s="0"/>
-      <c r="HS1" s="0"/>
-      <c r="HT1" s="0"/>
-      <c r="HU1" s="0"/>
-      <c r="HV1" s="0"/>
-      <c r="HW1" s="0"/>
-      <c r="HX1" s="0"/>
-      <c r="HY1" s="0"/>
-      <c r="HZ1" s="0"/>
-      <c r="IA1" s="0"/>
-      <c r="IB1" s="0"/>
-      <c r="IC1" s="0"/>
-      <c r="ID1" s="0"/>
-      <c r="IE1" s="0"/>
-      <c r="IF1" s="0"/>
-      <c r="IG1" s="0"/>
-      <c r="IH1" s="0"/>
-      <c r="II1" s="0"/>
-      <c r="IJ1" s="0"/>
-      <c r="IK1" s="0"/>
-      <c r="IL1" s="0"/>
-      <c r="IM1" s="0"/>
-      <c r="IN1" s="0"/>
-      <c r="IO1" s="0"/>
-      <c r="IP1" s="0"/>
-      <c r="IQ1" s="0"/>
-      <c r="IR1" s="0"/>
-      <c r="IS1" s="0"/>
-      <c r="IT1" s="0"/>
-      <c r="IU1" s="0"/>
-      <c r="IV1" s="0"/>
-      <c r="IW1" s="0"/>
-      <c r="IX1" s="0"/>
-      <c r="IY1" s="0"/>
-      <c r="IZ1" s="0"/>
-      <c r="JA1" s="0"/>
-      <c r="JB1" s="0"/>
-      <c r="JC1" s="0"/>
-      <c r="JD1" s="0"/>
-      <c r="JE1" s="0"/>
-      <c r="JF1" s="0"/>
-      <c r="JG1" s="0"/>
-      <c r="JH1" s="0"/>
-      <c r="JI1" s="0"/>
-      <c r="JJ1" s="0"/>
-      <c r="JK1" s="0"/>
-      <c r="JL1" s="0"/>
-      <c r="JM1" s="0"/>
-      <c r="JN1" s="0"/>
-      <c r="JO1" s="0"/>
-      <c r="JP1" s="0"/>
-      <c r="JQ1" s="0"/>
-      <c r="JR1" s="0"/>
-      <c r="JS1" s="0"/>
-      <c r="JT1" s="0"/>
-      <c r="JU1" s="0"/>
-      <c r="JV1" s="0"/>
-      <c r="JW1" s="0"/>
-      <c r="JX1" s="0"/>
-      <c r="JY1" s="0"/>
-      <c r="JZ1" s="0"/>
-      <c r="KA1" s="0"/>
-      <c r="KB1" s="0"/>
-      <c r="KC1" s="0"/>
-      <c r="KD1" s="0"/>
-      <c r="KE1" s="0"/>
-      <c r="KF1" s="0"/>
-      <c r="KG1" s="0"/>
-      <c r="KH1" s="0"/>
-      <c r="KI1" s="0"/>
-      <c r="KJ1" s="0"/>
-      <c r="KK1" s="0"/>
-      <c r="KL1" s="0"/>
-      <c r="KM1" s="0"/>
-      <c r="KN1" s="0"/>
-      <c r="KO1" s="0"/>
-      <c r="KP1" s="0"/>
-      <c r="KQ1" s="0"/>
-      <c r="KR1" s="0"/>
-      <c r="KS1" s="0"/>
-      <c r="KT1" s="0"/>
-      <c r="KU1" s="0"/>
-      <c r="KV1" s="0"/>
-      <c r="KW1" s="0"/>
-      <c r="KX1" s="0"/>
-      <c r="KY1" s="0"/>
-      <c r="KZ1" s="0"/>
-      <c r="LA1" s="0"/>
-      <c r="LB1" s="0"/>
-      <c r="LC1" s="0"/>
-      <c r="LD1" s="0"/>
-      <c r="LE1" s="0"/>
-      <c r="LF1" s="0"/>
-      <c r="LG1" s="0"/>
-      <c r="LH1" s="0"/>
-      <c r="LI1" s="0"/>
-      <c r="LJ1" s="0"/>
-      <c r="LK1" s="0"/>
-      <c r="LL1" s="0"/>
-      <c r="LM1" s="0"/>
-      <c r="LN1" s="0"/>
-      <c r="LO1" s="0"/>
-      <c r="LP1" s="0"/>
-      <c r="LQ1" s="0"/>
-      <c r="LR1" s="0"/>
-      <c r="LS1" s="0"/>
-      <c r="LT1" s="0"/>
-      <c r="LU1" s="0"/>
-      <c r="LV1" s="0"/>
-      <c r="LW1" s="0"/>
-      <c r="LX1" s="0"/>
-      <c r="LY1" s="0"/>
-      <c r="LZ1" s="0"/>
-      <c r="MA1" s="0"/>
-      <c r="MB1" s="0"/>
-      <c r="MC1" s="0"/>
-      <c r="MD1" s="0"/>
-      <c r="ME1" s="0"/>
-      <c r="MF1" s="0"/>
-      <c r="MG1" s="0"/>
-      <c r="MH1" s="0"/>
-      <c r="MI1" s="0"/>
-      <c r="MJ1" s="0"/>
-      <c r="MK1" s="0"/>
-      <c r="ML1" s="0"/>
-      <c r="MM1" s="0"/>
-      <c r="MN1" s="0"/>
-      <c r="MO1" s="0"/>
-      <c r="MP1" s="0"/>
-      <c r="MQ1" s="0"/>
-      <c r="MR1" s="0"/>
-      <c r="MS1" s="0"/>
-      <c r="MT1" s="0"/>
-      <c r="MU1" s="0"/>
-      <c r="MV1" s="0"/>
-      <c r="MW1" s="0"/>
-      <c r="MX1" s="0"/>
-      <c r="MY1" s="0"/>
-      <c r="MZ1" s="0"/>
-      <c r="NA1" s="0"/>
-      <c r="NB1" s="0"/>
-      <c r="NC1" s="0"/>
-      <c r="ND1" s="0"/>
-      <c r="NE1" s="0"/>
-      <c r="NF1" s="0"/>
-      <c r="NG1" s="0"/>
-      <c r="NH1" s="0"/>
-      <c r="NI1" s="0"/>
-      <c r="NJ1" s="0"/>
-      <c r="NK1" s="0"/>
-      <c r="NL1" s="0"/>
-      <c r="NM1" s="0"/>
-      <c r="NN1" s="0"/>
-      <c r="NO1" s="0"/>
-      <c r="NP1" s="0"/>
-      <c r="NQ1" s="0"/>
-      <c r="NR1" s="0"/>
-      <c r="NS1" s="0"/>
-      <c r="NT1" s="0"/>
-      <c r="NU1" s="0"/>
-      <c r="NV1" s="0"/>
-      <c r="NW1" s="0"/>
-      <c r="NX1" s="0"/>
-      <c r="NY1" s="0"/>
-      <c r="NZ1" s="0"/>
-      <c r="OA1" s="0"/>
-      <c r="OB1" s="0"/>
-      <c r="OC1" s="0"/>
-      <c r="OD1" s="0"/>
-      <c r="OE1" s="0"/>
-      <c r="OF1" s="0"/>
-      <c r="OG1" s="0"/>
-      <c r="OH1" s="0"/>
-      <c r="OI1" s="0"/>
-      <c r="OJ1" s="0"/>
-      <c r="OK1" s="0"/>
-      <c r="OL1" s="0"/>
-      <c r="OM1" s="0"/>
-      <c r="ON1" s="0"/>
-      <c r="OO1" s="0"/>
-      <c r="OP1" s="0"/>
-      <c r="OQ1" s="0"/>
-      <c r="OR1" s="0"/>
-      <c r="OS1" s="0"/>
-      <c r="OT1" s="0"/>
-      <c r="OU1" s="0"/>
-      <c r="OV1" s="0"/>
-      <c r="OW1" s="0"/>
-      <c r="OX1" s="0"/>
-      <c r="OY1" s="0"/>
-      <c r="OZ1" s="0"/>
-      <c r="PA1" s="0"/>
-      <c r="PB1" s="0"/>
-      <c r="PC1" s="0"/>
-      <c r="PD1" s="0"/>
-      <c r="PE1" s="0"/>
-      <c r="PF1" s="0"/>
-      <c r="PG1" s="0"/>
-      <c r="PH1" s="0"/>
-      <c r="PI1" s="0"/>
-      <c r="PJ1" s="0"/>
-      <c r="PK1" s="0"/>
-      <c r="PL1" s="0"/>
-      <c r="PM1" s="0"/>
-      <c r="PN1" s="0"/>
-      <c r="PO1" s="0"/>
-      <c r="PP1" s="0"/>
-      <c r="PQ1" s="0"/>
-      <c r="PR1" s="0"/>
-      <c r="PS1" s="0"/>
-      <c r="PT1" s="0"/>
-      <c r="PU1" s="0"/>
-      <c r="PV1" s="0"/>
-      <c r="PW1" s="0"/>
-      <c r="PX1" s="0"/>
-      <c r="PY1" s="0"/>
-      <c r="PZ1" s="0"/>
-      <c r="QA1" s="0"/>
-      <c r="QB1" s="0"/>
-      <c r="QC1" s="0"/>
-      <c r="QD1" s="0"/>
-      <c r="QE1" s="0"/>
-      <c r="QF1" s="0"/>
-      <c r="QG1" s="0"/>
-      <c r="QH1" s="0"/>
-      <c r="QI1" s="0"/>
-      <c r="QJ1" s="0"/>
-      <c r="QK1" s="0"/>
-      <c r="QL1" s="0"/>
-      <c r="QM1" s="0"/>
-      <c r="QN1" s="0"/>
-      <c r="QO1" s="0"/>
-      <c r="QP1" s="0"/>
-      <c r="QQ1" s="0"/>
-      <c r="QR1" s="0"/>
-      <c r="QS1" s="0"/>
-      <c r="QT1" s="0"/>
-      <c r="QU1" s="0"/>
-      <c r="QV1" s="0"/>
-      <c r="QW1" s="0"/>
-      <c r="QX1" s="0"/>
-      <c r="QY1" s="0"/>
-      <c r="QZ1" s="0"/>
-      <c r="RA1" s="0"/>
-      <c r="RB1" s="0"/>
-      <c r="RC1" s="0"/>
-      <c r="RD1" s="0"/>
-      <c r="RE1" s="0"/>
-      <c r="RF1" s="0"/>
-      <c r="RG1" s="0"/>
-      <c r="RH1" s="0"/>
-      <c r="RI1" s="0"/>
-      <c r="RJ1" s="0"/>
-      <c r="RK1" s="0"/>
-      <c r="RL1" s="0"/>
-      <c r="RM1" s="0"/>
-      <c r="RN1" s="0"/>
-      <c r="RO1" s="0"/>
-      <c r="RP1" s="0"/>
-      <c r="RQ1" s="0"/>
-      <c r="RR1" s="0"/>
-      <c r="RS1" s="0"/>
-      <c r="RT1" s="0"/>
-      <c r="RU1" s="0"/>
-      <c r="RV1" s="0"/>
-      <c r="RW1" s="0"/>
-      <c r="RX1" s="0"/>
-      <c r="RY1" s="0"/>
-      <c r="RZ1" s="0"/>
-      <c r="SA1" s="0"/>
-      <c r="SB1" s="0"/>
-      <c r="SC1" s="0"/>
-      <c r="SD1" s="0"/>
-      <c r="SE1" s="0"/>
-      <c r="SF1" s="0"/>
-      <c r="SG1" s="0"/>
-      <c r="SH1" s="0"/>
-      <c r="SI1" s="0"/>
-      <c r="SJ1" s="0"/>
-      <c r="SK1" s="0"/>
-      <c r="SL1" s="0"/>
-      <c r="SM1" s="0"/>
-      <c r="SN1" s="0"/>
-      <c r="SO1" s="0"/>
-      <c r="SP1" s="0"/>
-      <c r="SQ1" s="0"/>
-      <c r="SR1" s="0"/>
-      <c r="SS1" s="0"/>
-      <c r="ST1" s="0"/>
-      <c r="SU1" s="0"/>
-      <c r="SV1" s="0"/>
-      <c r="SW1" s="0"/>
-      <c r="SX1" s="0"/>
-      <c r="SY1" s="0"/>
-      <c r="SZ1" s="0"/>
-      <c r="TA1" s="0"/>
-      <c r="TB1" s="0"/>
-      <c r="TC1" s="0"/>
-      <c r="TD1" s="0"/>
-      <c r="TE1" s="0"/>
-      <c r="TF1" s="0"/>
-      <c r="TG1" s="0"/>
-      <c r="TH1" s="0"/>
-      <c r="TI1" s="0"/>
-      <c r="TJ1" s="0"/>
-      <c r="TK1" s="0"/>
-      <c r="TL1" s="0"/>
-      <c r="TM1" s="0"/>
-      <c r="TN1" s="0"/>
-      <c r="TO1" s="0"/>
-      <c r="TP1" s="0"/>
-      <c r="TQ1" s="0"/>
-      <c r="TR1" s="0"/>
-      <c r="TS1" s="0"/>
-      <c r="TT1" s="0"/>
-      <c r="TU1" s="0"/>
-      <c r="TV1" s="0"/>
-      <c r="TW1" s="0"/>
-      <c r="TX1" s="0"/>
-      <c r="TY1" s="0"/>
-      <c r="TZ1" s="0"/>
-      <c r="UA1" s="0"/>
-      <c r="UB1" s="0"/>
-      <c r="UC1" s="0"/>
-      <c r="UD1" s="0"/>
-      <c r="UE1" s="0"/>
-      <c r="UF1" s="0"/>
-      <c r="UG1" s="0"/>
-      <c r="UH1" s="0"/>
-      <c r="UI1" s="0"/>
-      <c r="UJ1" s="0"/>
-      <c r="UK1" s="0"/>
-      <c r="UL1" s="0"/>
-      <c r="UM1" s="0"/>
-      <c r="UN1" s="0"/>
-      <c r="UO1" s="0"/>
-      <c r="UP1" s="0"/>
-      <c r="UQ1" s="0"/>
-      <c r="UR1" s="0"/>
-      <c r="US1" s="0"/>
-      <c r="UT1" s="0"/>
-      <c r="UU1" s="0"/>
-      <c r="UV1" s="0"/>
-      <c r="UW1" s="0"/>
-      <c r="UX1" s="0"/>
-      <c r="UY1" s="0"/>
-      <c r="UZ1" s="0"/>
-      <c r="VA1" s="0"/>
-      <c r="VB1" s="0"/>
-      <c r="VC1" s="0"/>
-      <c r="VD1" s="0"/>
-      <c r="VE1" s="0"/>
-      <c r="VF1" s="0"/>
-      <c r="VG1" s="0"/>
-      <c r="VH1" s="0"/>
-      <c r="VI1" s="0"/>
-      <c r="VJ1" s="0"/>
-      <c r="VK1" s="0"/>
-      <c r="VL1" s="0"/>
-      <c r="VM1" s="0"/>
-      <c r="VN1" s="0"/>
-      <c r="VO1" s="0"/>
-      <c r="VP1" s="0"/>
-      <c r="VQ1" s="0"/>
-      <c r="VR1" s="0"/>
-      <c r="VS1" s="0"/>
-      <c r="VT1" s="0"/>
-      <c r="VU1" s="0"/>
-      <c r="VV1" s="0"/>
-      <c r="VW1" s="0"/>
-      <c r="VX1" s="0"/>
-      <c r="VY1" s="0"/>
-      <c r="VZ1" s="0"/>
-      <c r="WA1" s="0"/>
-      <c r="WB1" s="0"/>
-      <c r="WC1" s="0"/>
-      <c r="WD1" s="0"/>
-      <c r="WE1" s="0"/>
-      <c r="WF1" s="0"/>
-      <c r="WG1" s="0"/>
-      <c r="WH1" s="0"/>
-      <c r="WI1" s="0"/>
-      <c r="WJ1" s="0"/>
-      <c r="WK1" s="0"/>
-      <c r="WL1" s="0"/>
-      <c r="WM1" s="0"/>
-      <c r="WN1" s="0"/>
-      <c r="WO1" s="0"/>
-      <c r="WP1" s="0"/>
-      <c r="WQ1" s="0"/>
-      <c r="WR1" s="0"/>
-      <c r="WS1" s="0"/>
-      <c r="WT1" s="0"/>
-      <c r="WU1" s="0"/>
-      <c r="WV1" s="0"/>
-      <c r="WW1" s="0"/>
-      <c r="WX1" s="0"/>
-      <c r="WY1" s="0"/>
-      <c r="WZ1" s="0"/>
-      <c r="XA1" s="0"/>
-      <c r="XB1" s="0"/>
-      <c r="XC1" s="0"/>
-      <c r="XD1" s="0"/>
-      <c r="XE1" s="0"/>
-      <c r="XF1" s="0"/>
-      <c r="XG1" s="0"/>
-      <c r="XH1" s="0"/>
-      <c r="XI1" s="0"/>
-      <c r="XJ1" s="0"/>
-      <c r="XK1" s="0"/>
-      <c r="XL1" s="0"/>
-      <c r="XM1" s="0"/>
-      <c r="XN1" s="0"/>
-      <c r="XO1" s="0"/>
-      <c r="XP1" s="0"/>
-      <c r="XQ1" s="0"/>
-      <c r="XR1" s="0"/>
-      <c r="XS1" s="0"/>
-      <c r="XT1" s="0"/>
-      <c r="XU1" s="0"/>
-      <c r="XV1" s="0"/>
-      <c r="XW1" s="0"/>
-      <c r="XX1" s="0"/>
-      <c r="XY1" s="0"/>
-      <c r="XZ1" s="0"/>
-      <c r="YA1" s="0"/>
-      <c r="YB1" s="0"/>
-      <c r="YC1" s="0"/>
-      <c r="YD1" s="0"/>
-      <c r="YE1" s="0"/>
-      <c r="YF1" s="0"/>
-      <c r="YG1" s="0"/>
-      <c r="YH1" s="0"/>
-      <c r="YI1" s="0"/>
-      <c r="YJ1" s="0"/>
-      <c r="YK1" s="0"/>
-      <c r="YL1" s="0"/>
-      <c r="YM1" s="0"/>
-      <c r="YN1" s="0"/>
-      <c r="YO1" s="0"/>
-      <c r="YP1" s="0"/>
-      <c r="YQ1" s="0"/>
-      <c r="YR1" s="0"/>
-      <c r="YS1" s="0"/>
-      <c r="YT1" s="0"/>
-      <c r="YU1" s="0"/>
-      <c r="YV1" s="0"/>
-      <c r="YW1" s="0"/>
-      <c r="YX1" s="0"/>
-      <c r="YY1" s="0"/>
-      <c r="YZ1" s="0"/>
-      <c r="ZA1" s="0"/>
-      <c r="ZB1" s="0"/>
-      <c r="ZC1" s="0"/>
-      <c r="ZD1" s="0"/>
-      <c r="ZE1" s="0"/>
-      <c r="ZF1" s="0"/>
-      <c r="ZG1" s="0"/>
-      <c r="ZH1" s="0"/>
-      <c r="ZI1" s="0"/>
-      <c r="ZJ1" s="0"/>
-      <c r="ZK1" s="0"/>
-      <c r="ZL1" s="0"/>
-      <c r="ZM1" s="0"/>
-      <c r="ZN1" s="0"/>
-      <c r="ZO1" s="0"/>
-      <c r="ZP1" s="0"/>
-      <c r="ZQ1" s="0"/>
-      <c r="ZR1" s="0"/>
-      <c r="ZS1" s="0"/>
-      <c r="ZT1" s="0"/>
-      <c r="ZU1" s="0"/>
-      <c r="ZV1" s="0"/>
-      <c r="ZW1" s="0"/>
-      <c r="ZX1" s="0"/>
-      <c r="ZY1" s="0"/>
-      <c r="ZZ1" s="0"/>
-      <c r="AAA1" s="0"/>
-      <c r="AAB1" s="0"/>
-      <c r="AAC1" s="0"/>
-      <c r="AAD1" s="0"/>
-      <c r="AAE1" s="0"/>
-      <c r="AAF1" s="0"/>
-      <c r="AAG1" s="0"/>
-      <c r="AAH1" s="0"/>
-      <c r="AAI1" s="0"/>
-      <c r="AAJ1" s="0"/>
-      <c r="AAK1" s="0"/>
-      <c r="AAL1" s="0"/>
-      <c r="AAM1" s="0"/>
-      <c r="AAN1" s="0"/>
-      <c r="AAO1" s="0"/>
-      <c r="AAP1" s="0"/>
-      <c r="AAQ1" s="0"/>
-      <c r="AAR1" s="0"/>
-      <c r="AAS1" s="0"/>
-      <c r="AAT1" s="0"/>
-      <c r="AAU1" s="0"/>
-      <c r="AAV1" s="0"/>
-      <c r="AAW1" s="0"/>
-      <c r="AAX1" s="0"/>
-      <c r="AAY1" s="0"/>
-      <c r="AAZ1" s="0"/>
-      <c r="ABA1" s="0"/>
-      <c r="ABB1" s="0"/>
-      <c r="ABC1" s="0"/>
-      <c r="ABD1" s="0"/>
-      <c r="ABE1" s="0"/>
-      <c r="ABF1" s="0"/>
-      <c r="ABG1" s="0"/>
-      <c r="ABH1" s="0"/>
-      <c r="ABI1" s="0"/>
-      <c r="ABJ1" s="0"/>
-      <c r="ABK1" s="0"/>
-      <c r="ABL1" s="0"/>
-      <c r="ABM1" s="0"/>
-      <c r="ABN1" s="0"/>
-      <c r="ABO1" s="0"/>
-      <c r="ABP1" s="0"/>
-      <c r="ABQ1" s="0"/>
-      <c r="ABR1" s="0"/>
-      <c r="ABS1" s="0"/>
-      <c r="ABT1" s="0"/>
-      <c r="ABU1" s="0"/>
-      <c r="ABV1" s="0"/>
-      <c r="ABW1" s="0"/>
-      <c r="ABX1" s="0"/>
-      <c r="ABY1" s="0"/>
-      <c r="ABZ1" s="0"/>
-      <c r="ACA1" s="0"/>
-      <c r="ACB1" s="0"/>
-      <c r="ACC1" s="0"/>
-      <c r="ACD1" s="0"/>
-      <c r="ACE1" s="0"/>
-      <c r="ACF1" s="0"/>
-      <c r="ACG1" s="0"/>
-      <c r="ACH1" s="0"/>
-      <c r="ACI1" s="0"/>
-      <c r="ACJ1" s="0"/>
-      <c r="ACK1" s="0"/>
-      <c r="ACL1" s="0"/>
-      <c r="ACM1" s="0"/>
-      <c r="ACN1" s="0"/>
-      <c r="ACO1" s="0"/>
-      <c r="ACP1" s="0"/>
-      <c r="ACQ1" s="0"/>
-      <c r="ACR1" s="0"/>
-      <c r="ACS1" s="0"/>
-      <c r="ACT1" s="0"/>
-      <c r="ACU1" s="0"/>
-      <c r="ACV1" s="0"/>
-      <c r="ACW1" s="0"/>
-      <c r="ACX1" s="0"/>
-      <c r="ACY1" s="0"/>
-      <c r="ACZ1" s="0"/>
-      <c r="ADA1" s="0"/>
-      <c r="ADB1" s="0"/>
-      <c r="ADC1" s="0"/>
-      <c r="ADD1" s="0"/>
-      <c r="ADE1" s="0"/>
-      <c r="ADF1" s="0"/>
-      <c r="ADG1" s="0"/>
-      <c r="ADH1" s="0"/>
-      <c r="ADI1" s="0"/>
-      <c r="ADJ1" s="0"/>
-      <c r="ADK1" s="0"/>
-      <c r="ADL1" s="0"/>
-      <c r="ADM1" s="0"/>
-      <c r="ADN1" s="0"/>
-      <c r="ADO1" s="0"/>
-      <c r="ADP1" s="0"/>
-      <c r="ADQ1" s="0"/>
-      <c r="ADR1" s="0"/>
-      <c r="ADS1" s="0"/>
-      <c r="ADT1" s="0"/>
-      <c r="ADU1" s="0"/>
-      <c r="ADV1" s="0"/>
-      <c r="ADW1" s="0"/>
-      <c r="ADX1" s="0"/>
-      <c r="ADY1" s="0"/>
-      <c r="ADZ1" s="0"/>
-      <c r="AEA1" s="0"/>
-      <c r="AEB1" s="0"/>
-      <c r="AEC1" s="0"/>
-      <c r="AED1" s="0"/>
-      <c r="AEE1" s="0"/>
-      <c r="AEF1" s="0"/>
-      <c r="AEG1" s="0"/>
-      <c r="AEH1" s="0"/>
-      <c r="AEI1" s="0"/>
-      <c r="AEJ1" s="0"/>
-      <c r="AEK1" s="0"/>
-      <c r="AEL1" s="0"/>
-      <c r="AEM1" s="0"/>
-      <c r="AEN1" s="0"/>
-      <c r="AEO1" s="0"/>
-      <c r="AEP1" s="0"/>
-      <c r="AEQ1" s="0"/>
-      <c r="AER1" s="0"/>
-      <c r="AES1" s="0"/>
-      <c r="AET1" s="0"/>
-      <c r="AEU1" s="0"/>
-      <c r="AEV1" s="0"/>
-      <c r="AEW1" s="0"/>
-      <c r="AEX1" s="0"/>
-      <c r="AEY1" s="0"/>
-      <c r="AEZ1" s="0"/>
-      <c r="AFA1" s="0"/>
-      <c r="AFB1" s="0"/>
-      <c r="AFC1" s="0"/>
-      <c r="AFD1" s="0"/>
-      <c r="AFE1" s="0"/>
-      <c r="AFF1" s="0"/>
-      <c r="AFG1" s="0"/>
-      <c r="AFH1" s="0"/>
-      <c r="AFI1" s="0"/>
-      <c r="AFJ1" s="0"/>
-      <c r="AFK1" s="0"/>
-      <c r="AFL1" s="0"/>
-      <c r="AFM1" s="0"/>
-      <c r="AFN1" s="0"/>
-      <c r="AFO1" s="0"/>
-      <c r="AFP1" s="0"/>
-      <c r="AFQ1" s="0"/>
-      <c r="AFR1" s="0"/>
-      <c r="AFS1" s="0"/>
-      <c r="AFT1" s="0"/>
-      <c r="AFU1" s="0"/>
-      <c r="AFV1" s="0"/>
-      <c r="AFW1" s="0"/>
-      <c r="AFX1" s="0"/>
-      <c r="AFY1" s="0"/>
-      <c r="AFZ1" s="0"/>
-      <c r="AGA1" s="0"/>
-      <c r="AGB1" s="0"/>
-      <c r="AGC1" s="0"/>
-      <c r="AGD1" s="0"/>
-      <c r="AGE1" s="0"/>
-      <c r="AGF1" s="0"/>
-      <c r="AGG1" s="0"/>
-      <c r="AGH1" s="0"/>
-      <c r="AGI1" s="0"/>
-      <c r="AGJ1" s="0"/>
-      <c r="AGK1" s="0"/>
-      <c r="AGL1" s="0"/>
-      <c r="AGM1" s="0"/>
-      <c r="AGN1" s="0"/>
-      <c r="AGO1" s="0"/>
-      <c r="AGP1" s="0"/>
-      <c r="AGQ1" s="0"/>
-      <c r="AGR1" s="0"/>
-      <c r="AGS1" s="0"/>
-      <c r="AGT1" s="0"/>
-      <c r="AGU1" s="0"/>
-      <c r="AGV1" s="0"/>
-      <c r="AGW1" s="0"/>
-      <c r="AGX1" s="0"/>
-      <c r="AGY1" s="0"/>
-      <c r="AGZ1" s="0"/>
-      <c r="AHA1" s="0"/>
-      <c r="AHB1" s="0"/>
-      <c r="AHC1" s="0"/>
-      <c r="AHD1" s="0"/>
-      <c r="AHE1" s="0"/>
-      <c r="AHF1" s="0"/>
-      <c r="AHG1" s="0"/>
-      <c r="AHH1" s="0"/>
-      <c r="AHI1" s="0"/>
-      <c r="AHJ1" s="0"/>
-      <c r="AHK1" s="0"/>
-      <c r="AHL1" s="0"/>
-      <c r="AHM1" s="0"/>
-      <c r="AHN1" s="0"/>
-      <c r="AHO1" s="0"/>
-      <c r="AHP1" s="0"/>
-      <c r="AHQ1" s="0"/>
-      <c r="AHR1" s="0"/>
-      <c r="AHS1" s="0"/>
-      <c r="AHT1" s="0"/>
-      <c r="AHU1" s="0"/>
-      <c r="AHV1" s="0"/>
-      <c r="AHW1" s="0"/>
-      <c r="AHX1" s="0"/>
-      <c r="AHY1" s="0"/>
-      <c r="AHZ1" s="0"/>
-      <c r="AIA1" s="0"/>
-      <c r="AIB1" s="0"/>
-      <c r="AIC1" s="0"/>
-      <c r="AID1" s="0"/>
-      <c r="AIE1" s="0"/>
-      <c r="AIF1" s="0"/>
-      <c r="AIG1" s="0"/>
-      <c r="AIH1" s="0"/>
-      <c r="AII1" s="0"/>
-      <c r="AIJ1" s="0"/>
-      <c r="AIK1" s="0"/>
-      <c r="AIL1" s="0"/>
-      <c r="AIM1" s="0"/>
-      <c r="AIN1" s="0"/>
-      <c r="AIO1" s="0"/>
-      <c r="AIP1" s="0"/>
-      <c r="AIQ1" s="0"/>
-      <c r="AIR1" s="0"/>
-      <c r="AIS1" s="0"/>
-      <c r="AIT1" s="0"/>
-      <c r="AIU1" s="0"/>
-      <c r="AIV1" s="0"/>
-      <c r="AIW1" s="0"/>
-      <c r="AIX1" s="0"/>
-      <c r="AIY1" s="0"/>
-      <c r="AIZ1" s="0"/>
-      <c r="AJA1" s="0"/>
-      <c r="AJB1" s="0"/>
-      <c r="AJC1" s="0"/>
-      <c r="AJD1" s="0"/>
-      <c r="AJE1" s="0"/>
-      <c r="AJF1" s="0"/>
-      <c r="AJG1" s="0"/>
-      <c r="AJH1" s="0"/>
-      <c r="AJI1" s="0"/>
-      <c r="AJJ1" s="0"/>
-      <c r="AJK1" s="0"/>
-      <c r="AJL1" s="0"/>
-      <c r="AJM1" s="0"/>
-      <c r="AJN1" s="0"/>
-      <c r="AJO1" s="0"/>
-      <c r="AJP1" s="0"/>
-      <c r="AJQ1" s="0"/>
-      <c r="AJR1" s="0"/>
-      <c r="AJS1" s="0"/>
-      <c r="AJT1" s="0"/>
-      <c r="AJU1" s="0"/>
-      <c r="AJV1" s="0"/>
-      <c r="AJW1" s="0"/>
-      <c r="AJX1" s="0"/>
-      <c r="AJY1" s="0"/>
-      <c r="AJZ1" s="0"/>
-      <c r="AKA1" s="0"/>
-      <c r="AKB1" s="0"/>
-      <c r="AKC1" s="0"/>
-      <c r="AKD1" s="0"/>
-      <c r="AKE1" s="0"/>
-      <c r="AKF1" s="0"/>
-      <c r="AKG1" s="0"/>
-      <c r="AKH1" s="0"/>
-      <c r="AKI1" s="0"/>
-      <c r="AKJ1" s="0"/>
-      <c r="AKK1" s="0"/>
-      <c r="AKL1" s="0"/>
-      <c r="AKM1" s="0"/>
-      <c r="AKN1" s="0"/>
-      <c r="AKO1" s="0"/>
-      <c r="AKP1" s="0"/>
-      <c r="AKQ1" s="0"/>
-      <c r="AKR1" s="0"/>
-      <c r="AKS1" s="0"/>
-      <c r="AKT1" s="0"/>
-      <c r="AKU1" s="0"/>
-      <c r="AKV1" s="0"/>
-      <c r="AKW1" s="0"/>
-      <c r="AKX1" s="0"/>
-      <c r="AKY1" s="0"/>
-      <c r="AKZ1" s="0"/>
-      <c r="ALA1" s="0"/>
-      <c r="ALB1" s="0"/>
-      <c r="ALC1" s="0"/>
-      <c r="ALD1" s="0"/>
-      <c r="ALE1" s="0"/>
-      <c r="ALF1" s="0"/>
-      <c r="ALG1" s="0"/>
-      <c r="ALH1" s="0"/>
-      <c r="ALI1" s="0"/>
-      <c r="ALJ1" s="0"/>
-      <c r="ALK1" s="0"/>
-      <c r="ALL1" s="0"/>
-      <c r="ALM1" s="0"/>
-      <c r="ALN1" s="0"/>
-      <c r="ALO1" s="0"/>
-      <c r="ALP1" s="0"/>
-      <c r="ALQ1" s="0"/>
-      <c r="ALR1" s="0"/>
-      <c r="ALS1" s="0"/>
-      <c r="ALT1" s="0"/>
-      <c r="ALU1" s="0"/>
-      <c r="ALV1" s="0"/>
-      <c r="ALW1" s="0"/>
-      <c r="ALX1" s="0"/>
-      <c r="ALY1" s="0"/>
-      <c r="ALZ1" s="0"/>
-      <c r="AMA1" s="0"/>
-      <c r="AMB1" s="0"/>
-      <c r="AMC1" s="0"/>
-      <c r="AMD1" s="0"/>
-      <c r="AME1" s="0"/>
-      <c r="AMF1" s="0"/>
-      <c r="AMG1" s="0"/>
-      <c r="AMH1" s="0"/>
+        <v>31</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" s="10" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7"/>
+      <c r="A2" s="12"/>
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" s="11"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>32</v>
+      <c r="C2" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="14"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="14"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O2" s="0"/>
-      <c r="P2" s="0"/>
+        <v>36</v>
+      </c>
+      <c r="O2" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="Q2" s="0"/>
       <c r="R2" s="0"/>
       <c r="S2" s="0"/>
@@ -2736,44 +1804,46 @@
       <c r="AMF2" s="0"/>
       <c r="AMG2" s="0"/>
       <c r="AMH2" s="0"/>
+      <c r="AMI2" s="0"/>
+      <c r="AMJ2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="17" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" s="11" t="s">
+      <c r="C3" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="12"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>32</v>
+      <c r="D3" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="15"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" s="15"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O3" s="0"/>
-      <c r="P3" s="0"/>
+        <v>38</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="Q3" s="0"/>
       <c r="R3" s="0"/>
       <c r="S3" s="0"/>
@@ -3780,42 +2850,44 @@
       <c r="AMF3" s="0"/>
       <c r="AMG3" s="0"/>
       <c r="AMH3" s="0"/>
+      <c r="AMI3" s="0"/>
+      <c r="AMJ3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="17" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="11" t="s">
+      <c r="C4" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="I4" s="12"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>32</v>
+      <c r="D4" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="15"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" s="15"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O4" s="0"/>
-      <c r="P4" s="0"/>
+        <v>38</v>
+      </c>
+      <c r="O4" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="Q4" s="0"/>
       <c r="R4" s="0"/>
       <c r="S4" s="0"/>
@@ -4822,114 +3894,2138 @@
       <c r="AMF4" s="0"/>
       <c r="AMG4" s="0"/>
       <c r="AMH4" s="0"/>
+      <c r="AMI4" s="0"/>
+      <c r="AMJ4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="17" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="11" t="s">
+      <c r="C5" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="12"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>32</v>
+      <c r="D5" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" s="15"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>35</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="O5" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q5" s="0"/>
+      <c r="R5" s="0"/>
+      <c r="S5" s="0"/>
+      <c r="T5" s="0"/>
+      <c r="U5" s="0"/>
+      <c r="V5" s="0"/>
+      <c r="W5" s="0"/>
+      <c r="X5" s="0"/>
+      <c r="Y5" s="0"/>
+      <c r="Z5" s="0"/>
+      <c r="AA5" s="0"/>
+      <c r="AB5" s="0"/>
+      <c r="AC5" s="0"/>
+      <c r="AD5" s="0"/>
+      <c r="AE5" s="0"/>
+      <c r="AF5" s="0"/>
+      <c r="AG5" s="0"/>
+      <c r="AH5" s="0"/>
+      <c r="AI5" s="0"/>
+      <c r="AJ5" s="0"/>
+      <c r="AK5" s="0"/>
+      <c r="AL5" s="0"/>
+      <c r="AM5" s="0"/>
+      <c r="AN5" s="0"/>
+      <c r="AO5" s="0"/>
+      <c r="AP5" s="0"/>
+      <c r="AQ5" s="0"/>
+      <c r="AR5" s="0"/>
+      <c r="AS5" s="0"/>
+      <c r="AT5" s="0"/>
+      <c r="AU5" s="0"/>
+      <c r="AV5" s="0"/>
+      <c r="AW5" s="0"/>
+      <c r="AX5" s="0"/>
+      <c r="AY5" s="0"/>
+      <c r="AZ5" s="0"/>
+      <c r="BA5" s="0"/>
+      <c r="BB5" s="0"/>
+      <c r="BC5" s="0"/>
+      <c r="BD5" s="0"/>
+      <c r="BE5" s="0"/>
+      <c r="BF5" s="0"/>
+      <c r="BG5" s="0"/>
+      <c r="BH5" s="0"/>
+      <c r="BI5" s="0"/>
+      <c r="BJ5" s="0"/>
+      <c r="BK5" s="0"/>
+      <c r="BL5" s="0"/>
+      <c r="BM5" s="0"/>
+      <c r="BN5" s="0"/>
+      <c r="BO5" s="0"/>
+      <c r="BP5" s="0"/>
+      <c r="BQ5" s="0"/>
+      <c r="BR5" s="0"/>
+      <c r="BS5" s="0"/>
+      <c r="BT5" s="0"/>
+      <c r="BU5" s="0"/>
+      <c r="BV5" s="0"/>
+      <c r="BW5" s="0"/>
+      <c r="BX5" s="0"/>
+      <c r="BY5" s="0"/>
+      <c r="BZ5" s="0"/>
+      <c r="CA5" s="0"/>
+      <c r="CB5" s="0"/>
+      <c r="CC5" s="0"/>
+      <c r="CD5" s="0"/>
+      <c r="CE5" s="0"/>
+      <c r="CF5" s="0"/>
+      <c r="CG5" s="0"/>
+      <c r="CH5" s="0"/>
+      <c r="CI5" s="0"/>
+      <c r="CJ5" s="0"/>
+      <c r="CK5" s="0"/>
+      <c r="CL5" s="0"/>
+      <c r="CM5" s="0"/>
+      <c r="CN5" s="0"/>
+      <c r="CO5" s="0"/>
+      <c r="CP5" s="0"/>
+      <c r="CQ5" s="0"/>
+      <c r="CR5" s="0"/>
+      <c r="CS5" s="0"/>
+      <c r="CT5" s="0"/>
+      <c r="CU5" s="0"/>
+      <c r="CV5" s="0"/>
+      <c r="CW5" s="0"/>
+      <c r="CX5" s="0"/>
+      <c r="CY5" s="0"/>
+      <c r="CZ5" s="0"/>
+      <c r="DA5" s="0"/>
+      <c r="DB5" s="0"/>
+      <c r="DC5" s="0"/>
+      <c r="DD5" s="0"/>
+      <c r="DE5" s="0"/>
+      <c r="DF5" s="0"/>
+      <c r="DG5" s="0"/>
+      <c r="DH5" s="0"/>
+      <c r="DI5" s="0"/>
+      <c r="DJ5" s="0"/>
+      <c r="DK5" s="0"/>
+      <c r="DL5" s="0"/>
+      <c r="DM5" s="0"/>
+      <c r="DN5" s="0"/>
+      <c r="DO5" s="0"/>
+      <c r="DP5" s="0"/>
+      <c r="DQ5" s="0"/>
+      <c r="DR5" s="0"/>
+      <c r="DS5" s="0"/>
+      <c r="DT5" s="0"/>
+      <c r="DU5" s="0"/>
+      <c r="DV5" s="0"/>
+      <c r="DW5" s="0"/>
+      <c r="DX5" s="0"/>
+      <c r="DY5" s="0"/>
+      <c r="DZ5" s="0"/>
+      <c r="EA5" s="0"/>
+      <c r="EB5" s="0"/>
+      <c r="EC5" s="0"/>
+      <c r="ED5" s="0"/>
+      <c r="EE5" s="0"/>
+      <c r="EF5" s="0"/>
+      <c r="EG5" s="0"/>
+      <c r="EH5" s="0"/>
+      <c r="EI5" s="0"/>
+      <c r="EJ5" s="0"/>
+      <c r="EK5" s="0"/>
+      <c r="EL5" s="0"/>
+      <c r="EM5" s="0"/>
+      <c r="EN5" s="0"/>
+      <c r="EO5" s="0"/>
+      <c r="EP5" s="0"/>
+      <c r="EQ5" s="0"/>
+      <c r="ER5" s="0"/>
+      <c r="ES5" s="0"/>
+      <c r="ET5" s="0"/>
+      <c r="EU5" s="0"/>
+      <c r="EV5" s="0"/>
+      <c r="EW5" s="0"/>
+      <c r="EX5" s="0"/>
+      <c r="EY5" s="0"/>
+      <c r="EZ5" s="0"/>
+      <c r="FA5" s="0"/>
+      <c r="FB5" s="0"/>
+      <c r="FC5" s="0"/>
+      <c r="FD5" s="0"/>
+      <c r="FE5" s="0"/>
+      <c r="FF5" s="0"/>
+      <c r="FG5" s="0"/>
+      <c r="FH5" s="0"/>
+      <c r="FI5" s="0"/>
+      <c r="FJ5" s="0"/>
+      <c r="FK5" s="0"/>
+      <c r="FL5" s="0"/>
+      <c r="FM5" s="0"/>
+      <c r="FN5" s="0"/>
+      <c r="FO5" s="0"/>
+      <c r="FP5" s="0"/>
+      <c r="FQ5" s="0"/>
+      <c r="FR5" s="0"/>
+      <c r="FS5" s="0"/>
+      <c r="FT5" s="0"/>
+      <c r="FU5" s="0"/>
+      <c r="FV5" s="0"/>
+      <c r="FW5" s="0"/>
+      <c r="FX5" s="0"/>
+      <c r="FY5" s="0"/>
+      <c r="FZ5" s="0"/>
+      <c r="GA5" s="0"/>
+      <c r="GB5" s="0"/>
+      <c r="GC5" s="0"/>
+      <c r="GD5" s="0"/>
+      <c r="GE5" s="0"/>
+      <c r="GF5" s="0"/>
+      <c r="GG5" s="0"/>
+      <c r="GH5" s="0"/>
+      <c r="GI5" s="0"/>
+      <c r="GJ5" s="0"/>
+      <c r="GK5" s="0"/>
+      <c r="GL5" s="0"/>
+      <c r="GM5" s="0"/>
+      <c r="GN5" s="0"/>
+      <c r="GO5" s="0"/>
+      <c r="GP5" s="0"/>
+      <c r="GQ5" s="0"/>
+      <c r="GR5" s="0"/>
+      <c r="GS5" s="0"/>
+      <c r="GT5" s="0"/>
+      <c r="GU5" s="0"/>
+      <c r="GV5" s="0"/>
+      <c r="GW5" s="0"/>
+      <c r="GX5" s="0"/>
+      <c r="GY5" s="0"/>
+      <c r="GZ5" s="0"/>
+      <c r="HA5" s="0"/>
+      <c r="HB5" s="0"/>
+      <c r="HC5" s="0"/>
+      <c r="HD5" s="0"/>
+      <c r="HE5" s="0"/>
+      <c r="HF5" s="0"/>
+      <c r="HG5" s="0"/>
+      <c r="HH5" s="0"/>
+      <c r="HI5" s="0"/>
+      <c r="HJ5" s="0"/>
+      <c r="HK5" s="0"/>
+      <c r="HL5" s="0"/>
+      <c r="HM5" s="0"/>
+      <c r="HN5" s="0"/>
+      <c r="HO5" s="0"/>
+      <c r="HP5" s="0"/>
+      <c r="HQ5" s="0"/>
+      <c r="HR5" s="0"/>
+      <c r="HS5" s="0"/>
+      <c r="HT5" s="0"/>
+      <c r="HU5" s="0"/>
+      <c r="HV5" s="0"/>
+      <c r="HW5" s="0"/>
+      <c r="HX5" s="0"/>
+      <c r="HY5" s="0"/>
+      <c r="HZ5" s="0"/>
+      <c r="IA5" s="0"/>
+      <c r="IB5" s="0"/>
+      <c r="IC5" s="0"/>
+      <c r="ID5" s="0"/>
+      <c r="IE5" s="0"/>
+      <c r="IF5" s="0"/>
+      <c r="IG5" s="0"/>
+      <c r="IH5" s="0"/>
+      <c r="II5" s="0"/>
+      <c r="IJ5" s="0"/>
+      <c r="IK5" s="0"/>
+      <c r="IL5" s="0"/>
+      <c r="IM5" s="0"/>
+      <c r="IN5" s="0"/>
+      <c r="IO5" s="0"/>
+      <c r="IP5" s="0"/>
+      <c r="IQ5" s="0"/>
+      <c r="IR5" s="0"/>
+      <c r="IS5" s="0"/>
+      <c r="IT5" s="0"/>
+      <c r="IU5" s="0"/>
+      <c r="IV5" s="0"/>
+      <c r="IW5" s="0"/>
+      <c r="IX5" s="0"/>
+      <c r="IY5" s="0"/>
+      <c r="IZ5" s="0"/>
+      <c r="JA5" s="0"/>
+      <c r="JB5" s="0"/>
+      <c r="JC5" s="0"/>
+      <c r="JD5" s="0"/>
+      <c r="JE5" s="0"/>
+      <c r="JF5" s="0"/>
+      <c r="JG5" s="0"/>
+      <c r="JH5" s="0"/>
+      <c r="JI5" s="0"/>
+      <c r="JJ5" s="0"/>
+      <c r="JK5" s="0"/>
+      <c r="JL5" s="0"/>
+      <c r="JM5" s="0"/>
+      <c r="JN5" s="0"/>
+      <c r="JO5" s="0"/>
+      <c r="JP5" s="0"/>
+      <c r="JQ5" s="0"/>
+      <c r="JR5" s="0"/>
+      <c r="JS5" s="0"/>
+      <c r="JT5" s="0"/>
+      <c r="JU5" s="0"/>
+      <c r="JV5" s="0"/>
+      <c r="JW5" s="0"/>
+      <c r="JX5" s="0"/>
+      <c r="JY5" s="0"/>
+      <c r="JZ5" s="0"/>
+      <c r="KA5" s="0"/>
+      <c r="KB5" s="0"/>
+      <c r="KC5" s="0"/>
+      <c r="KD5" s="0"/>
+      <c r="KE5" s="0"/>
+      <c r="KF5" s="0"/>
+      <c r="KG5" s="0"/>
+      <c r="KH5" s="0"/>
+      <c r="KI5" s="0"/>
+      <c r="KJ5" s="0"/>
+      <c r="KK5" s="0"/>
+      <c r="KL5" s="0"/>
+      <c r="KM5" s="0"/>
+      <c r="KN5" s="0"/>
+      <c r="KO5" s="0"/>
+      <c r="KP5" s="0"/>
+      <c r="KQ5" s="0"/>
+      <c r="KR5" s="0"/>
+      <c r="KS5" s="0"/>
+      <c r="KT5" s="0"/>
+      <c r="KU5" s="0"/>
+      <c r="KV5" s="0"/>
+      <c r="KW5" s="0"/>
+      <c r="KX5" s="0"/>
+      <c r="KY5" s="0"/>
+      <c r="KZ5" s="0"/>
+      <c r="LA5" s="0"/>
+      <c r="LB5" s="0"/>
+      <c r="LC5" s="0"/>
+      <c r="LD5" s="0"/>
+      <c r="LE5" s="0"/>
+      <c r="LF5" s="0"/>
+      <c r="LG5" s="0"/>
+      <c r="LH5" s="0"/>
+      <c r="LI5" s="0"/>
+      <c r="LJ5" s="0"/>
+      <c r="LK5" s="0"/>
+      <c r="LL5" s="0"/>
+      <c r="LM5" s="0"/>
+      <c r="LN5" s="0"/>
+      <c r="LO5" s="0"/>
+      <c r="LP5" s="0"/>
+      <c r="LQ5" s="0"/>
+      <c r="LR5" s="0"/>
+      <c r="LS5" s="0"/>
+      <c r="LT5" s="0"/>
+      <c r="LU5" s="0"/>
+      <c r="LV5" s="0"/>
+      <c r="LW5" s="0"/>
+      <c r="LX5" s="0"/>
+      <c r="LY5" s="0"/>
+      <c r="LZ5" s="0"/>
+      <c r="MA5" s="0"/>
+      <c r="MB5" s="0"/>
+      <c r="MC5" s="0"/>
+      <c r="MD5" s="0"/>
+      <c r="ME5" s="0"/>
+      <c r="MF5" s="0"/>
+      <c r="MG5" s="0"/>
+      <c r="MH5" s="0"/>
+      <c r="MI5" s="0"/>
+      <c r="MJ5" s="0"/>
+      <c r="MK5" s="0"/>
+      <c r="ML5" s="0"/>
+      <c r="MM5" s="0"/>
+      <c r="MN5" s="0"/>
+      <c r="MO5" s="0"/>
+      <c r="MP5" s="0"/>
+      <c r="MQ5" s="0"/>
+      <c r="MR5" s="0"/>
+      <c r="MS5" s="0"/>
+      <c r="MT5" s="0"/>
+      <c r="MU5" s="0"/>
+      <c r="MV5" s="0"/>
+      <c r="MW5" s="0"/>
+      <c r="MX5" s="0"/>
+      <c r="MY5" s="0"/>
+      <c r="MZ5" s="0"/>
+      <c r="NA5" s="0"/>
+      <c r="NB5" s="0"/>
+      <c r="NC5" s="0"/>
+      <c r="ND5" s="0"/>
+      <c r="NE5" s="0"/>
+      <c r="NF5" s="0"/>
+      <c r="NG5" s="0"/>
+      <c r="NH5" s="0"/>
+      <c r="NI5" s="0"/>
+      <c r="NJ5" s="0"/>
+      <c r="NK5" s="0"/>
+      <c r="NL5" s="0"/>
+      <c r="NM5" s="0"/>
+      <c r="NN5" s="0"/>
+      <c r="NO5" s="0"/>
+      <c r="NP5" s="0"/>
+      <c r="NQ5" s="0"/>
+      <c r="NR5" s="0"/>
+      <c r="NS5" s="0"/>
+      <c r="NT5" s="0"/>
+      <c r="NU5" s="0"/>
+      <c r="NV5" s="0"/>
+      <c r="NW5" s="0"/>
+      <c r="NX5" s="0"/>
+      <c r="NY5" s="0"/>
+      <c r="NZ5" s="0"/>
+      <c r="OA5" s="0"/>
+      <c r="OB5" s="0"/>
+      <c r="OC5" s="0"/>
+      <c r="OD5" s="0"/>
+      <c r="OE5" s="0"/>
+      <c r="OF5" s="0"/>
+      <c r="OG5" s="0"/>
+      <c r="OH5" s="0"/>
+      <c r="OI5" s="0"/>
+      <c r="OJ5" s="0"/>
+      <c r="OK5" s="0"/>
+      <c r="OL5" s="0"/>
+      <c r="OM5" s="0"/>
+      <c r="ON5" s="0"/>
+      <c r="OO5" s="0"/>
+      <c r="OP5" s="0"/>
+      <c r="OQ5" s="0"/>
+      <c r="OR5" s="0"/>
+      <c r="OS5" s="0"/>
+      <c r="OT5" s="0"/>
+      <c r="OU5" s="0"/>
+      <c r="OV5" s="0"/>
+      <c r="OW5" s="0"/>
+      <c r="OX5" s="0"/>
+      <c r="OY5" s="0"/>
+      <c r="OZ5" s="0"/>
+      <c r="PA5" s="0"/>
+      <c r="PB5" s="0"/>
+      <c r="PC5" s="0"/>
+      <c r="PD5" s="0"/>
+      <c r="PE5" s="0"/>
+      <c r="PF5" s="0"/>
+      <c r="PG5" s="0"/>
+      <c r="PH5" s="0"/>
+      <c r="PI5" s="0"/>
+      <c r="PJ5" s="0"/>
+      <c r="PK5" s="0"/>
+      <c r="PL5" s="0"/>
+      <c r="PM5" s="0"/>
+      <c r="PN5" s="0"/>
+      <c r="PO5" s="0"/>
+      <c r="PP5" s="0"/>
+      <c r="PQ5" s="0"/>
+      <c r="PR5" s="0"/>
+      <c r="PS5" s="0"/>
+      <c r="PT5" s="0"/>
+      <c r="PU5" s="0"/>
+      <c r="PV5" s="0"/>
+      <c r="PW5" s="0"/>
+      <c r="PX5" s="0"/>
+      <c r="PY5" s="0"/>
+      <c r="PZ5" s="0"/>
+      <c r="QA5" s="0"/>
+      <c r="QB5" s="0"/>
+      <c r="QC5" s="0"/>
+      <c r="QD5" s="0"/>
+      <c r="QE5" s="0"/>
+      <c r="QF5" s="0"/>
+      <c r="QG5" s="0"/>
+      <c r="QH5" s="0"/>
+      <c r="QI5" s="0"/>
+      <c r="QJ5" s="0"/>
+      <c r="QK5" s="0"/>
+      <c r="QL5" s="0"/>
+      <c r="QM5" s="0"/>
+      <c r="QN5" s="0"/>
+      <c r="QO5" s="0"/>
+      <c r="QP5" s="0"/>
+      <c r="QQ5" s="0"/>
+      <c r="QR5" s="0"/>
+      <c r="QS5" s="0"/>
+      <c r="QT5" s="0"/>
+      <c r="QU5" s="0"/>
+      <c r="QV5" s="0"/>
+      <c r="QW5" s="0"/>
+      <c r="QX5" s="0"/>
+      <c r="QY5" s="0"/>
+      <c r="QZ5" s="0"/>
+      <c r="RA5" s="0"/>
+      <c r="RB5" s="0"/>
+      <c r="RC5" s="0"/>
+      <c r="RD5" s="0"/>
+      <c r="RE5" s="0"/>
+      <c r="RF5" s="0"/>
+      <c r="RG5" s="0"/>
+      <c r="RH5" s="0"/>
+      <c r="RI5" s="0"/>
+      <c r="RJ5" s="0"/>
+      <c r="RK5" s="0"/>
+      <c r="RL5" s="0"/>
+      <c r="RM5" s="0"/>
+      <c r="RN5" s="0"/>
+      <c r="RO5" s="0"/>
+      <c r="RP5" s="0"/>
+      <c r="RQ5" s="0"/>
+      <c r="RR5" s="0"/>
+      <c r="RS5" s="0"/>
+      <c r="RT5" s="0"/>
+      <c r="RU5" s="0"/>
+      <c r="RV5" s="0"/>
+      <c r="RW5" s="0"/>
+      <c r="RX5" s="0"/>
+      <c r="RY5" s="0"/>
+      <c r="RZ5" s="0"/>
+      <c r="SA5" s="0"/>
+      <c r="SB5" s="0"/>
+      <c r="SC5" s="0"/>
+      <c r="SD5" s="0"/>
+      <c r="SE5" s="0"/>
+      <c r="SF5" s="0"/>
+      <c r="SG5" s="0"/>
+      <c r="SH5" s="0"/>
+      <c r="SI5" s="0"/>
+      <c r="SJ5" s="0"/>
+      <c r="SK5" s="0"/>
+      <c r="SL5" s="0"/>
+      <c r="SM5" s="0"/>
+      <c r="SN5" s="0"/>
+      <c r="SO5" s="0"/>
+      <c r="SP5" s="0"/>
+      <c r="SQ5" s="0"/>
+      <c r="SR5" s="0"/>
+      <c r="SS5" s="0"/>
+      <c r="ST5" s="0"/>
+      <c r="SU5" s="0"/>
+      <c r="SV5" s="0"/>
+      <c r="SW5" s="0"/>
+      <c r="SX5" s="0"/>
+      <c r="SY5" s="0"/>
+      <c r="SZ5" s="0"/>
+      <c r="TA5" s="0"/>
+      <c r="TB5" s="0"/>
+      <c r="TC5" s="0"/>
+      <c r="TD5" s="0"/>
+      <c r="TE5" s="0"/>
+      <c r="TF5" s="0"/>
+      <c r="TG5" s="0"/>
+      <c r="TH5" s="0"/>
+      <c r="TI5" s="0"/>
+      <c r="TJ5" s="0"/>
+      <c r="TK5" s="0"/>
+      <c r="TL5" s="0"/>
+      <c r="TM5" s="0"/>
+      <c r="TN5" s="0"/>
+      <c r="TO5" s="0"/>
+      <c r="TP5" s="0"/>
+      <c r="TQ5" s="0"/>
+      <c r="TR5" s="0"/>
+      <c r="TS5" s="0"/>
+      <c r="TT5" s="0"/>
+      <c r="TU5" s="0"/>
+      <c r="TV5" s="0"/>
+      <c r="TW5" s="0"/>
+      <c r="TX5" s="0"/>
+      <c r="TY5" s="0"/>
+      <c r="TZ5" s="0"/>
+      <c r="UA5" s="0"/>
+      <c r="UB5" s="0"/>
+      <c r="UC5" s="0"/>
+      <c r="UD5" s="0"/>
+      <c r="UE5" s="0"/>
+      <c r="UF5" s="0"/>
+      <c r="UG5" s="0"/>
+      <c r="UH5" s="0"/>
+      <c r="UI5" s="0"/>
+      <c r="UJ5" s="0"/>
+      <c r="UK5" s="0"/>
+      <c r="UL5" s="0"/>
+      <c r="UM5" s="0"/>
+      <c r="UN5" s="0"/>
+      <c r="UO5" s="0"/>
+      <c r="UP5" s="0"/>
+      <c r="UQ5" s="0"/>
+      <c r="UR5" s="0"/>
+      <c r="US5" s="0"/>
+      <c r="UT5" s="0"/>
+      <c r="UU5" s="0"/>
+      <c r="UV5" s="0"/>
+      <c r="UW5" s="0"/>
+      <c r="UX5" s="0"/>
+      <c r="UY5" s="0"/>
+      <c r="UZ5" s="0"/>
+      <c r="VA5" s="0"/>
+      <c r="VB5" s="0"/>
+      <c r="VC5" s="0"/>
+      <c r="VD5" s="0"/>
+      <c r="VE5" s="0"/>
+      <c r="VF5" s="0"/>
+      <c r="VG5" s="0"/>
+      <c r="VH5" s="0"/>
+      <c r="VI5" s="0"/>
+      <c r="VJ5" s="0"/>
+      <c r="VK5" s="0"/>
+      <c r="VL5" s="0"/>
+      <c r="VM5" s="0"/>
+      <c r="VN5" s="0"/>
+      <c r="VO5" s="0"/>
+      <c r="VP5" s="0"/>
+      <c r="VQ5" s="0"/>
+      <c r="VR5" s="0"/>
+      <c r="VS5" s="0"/>
+      <c r="VT5" s="0"/>
+      <c r="VU5" s="0"/>
+      <c r="VV5" s="0"/>
+      <c r="VW5" s="0"/>
+      <c r="VX5" s="0"/>
+      <c r="VY5" s="0"/>
+      <c r="VZ5" s="0"/>
+      <c r="WA5" s="0"/>
+      <c r="WB5" s="0"/>
+      <c r="WC5" s="0"/>
+      <c r="WD5" s="0"/>
+      <c r="WE5" s="0"/>
+      <c r="WF5" s="0"/>
+      <c r="WG5" s="0"/>
+      <c r="WH5" s="0"/>
+      <c r="WI5" s="0"/>
+      <c r="WJ5" s="0"/>
+      <c r="WK5" s="0"/>
+      <c r="WL5" s="0"/>
+      <c r="WM5" s="0"/>
+      <c r="WN5" s="0"/>
+      <c r="WO5" s="0"/>
+      <c r="WP5" s="0"/>
+      <c r="WQ5" s="0"/>
+      <c r="WR5" s="0"/>
+      <c r="WS5" s="0"/>
+      <c r="WT5" s="0"/>
+      <c r="WU5" s="0"/>
+      <c r="WV5" s="0"/>
+      <c r="WW5" s="0"/>
+      <c r="WX5" s="0"/>
+      <c r="WY5" s="0"/>
+      <c r="WZ5" s="0"/>
+      <c r="XA5" s="0"/>
+      <c r="XB5" s="0"/>
+      <c r="XC5" s="0"/>
+      <c r="XD5" s="0"/>
+      <c r="XE5" s="0"/>
+      <c r="XF5" s="0"/>
+      <c r="XG5" s="0"/>
+      <c r="XH5" s="0"/>
+      <c r="XI5" s="0"/>
+      <c r="XJ5" s="0"/>
+      <c r="XK5" s="0"/>
+      <c r="XL5" s="0"/>
+      <c r="XM5" s="0"/>
+      <c r="XN5" s="0"/>
+      <c r="XO5" s="0"/>
+      <c r="XP5" s="0"/>
+      <c r="XQ5" s="0"/>
+      <c r="XR5" s="0"/>
+      <c r="XS5" s="0"/>
+      <c r="XT5" s="0"/>
+      <c r="XU5" s="0"/>
+      <c r="XV5" s="0"/>
+      <c r="XW5" s="0"/>
+      <c r="XX5" s="0"/>
+      <c r="XY5" s="0"/>
+      <c r="XZ5" s="0"/>
+      <c r="YA5" s="0"/>
+      <c r="YB5" s="0"/>
+      <c r="YC5" s="0"/>
+      <c r="YD5" s="0"/>
+      <c r="YE5" s="0"/>
+      <c r="YF5" s="0"/>
+      <c r="YG5" s="0"/>
+      <c r="YH5" s="0"/>
+      <c r="YI5" s="0"/>
+      <c r="YJ5" s="0"/>
+      <c r="YK5" s="0"/>
+      <c r="YL5" s="0"/>
+      <c r="YM5" s="0"/>
+      <c r="YN5" s="0"/>
+      <c r="YO5" s="0"/>
+      <c r="YP5" s="0"/>
+      <c r="YQ5" s="0"/>
+      <c r="YR5" s="0"/>
+      <c r="YS5" s="0"/>
+      <c r="YT5" s="0"/>
+      <c r="YU5" s="0"/>
+      <c r="YV5" s="0"/>
+      <c r="YW5" s="0"/>
+      <c r="YX5" s="0"/>
+      <c r="YY5" s="0"/>
+      <c r="YZ5" s="0"/>
+      <c r="ZA5" s="0"/>
+      <c r="ZB5" s="0"/>
+      <c r="ZC5" s="0"/>
+      <c r="ZD5" s="0"/>
+      <c r="ZE5" s="0"/>
+      <c r="ZF5" s="0"/>
+      <c r="ZG5" s="0"/>
+      <c r="ZH5" s="0"/>
+      <c r="ZI5" s="0"/>
+      <c r="ZJ5" s="0"/>
+      <c r="ZK5" s="0"/>
+      <c r="ZL5" s="0"/>
+      <c r="ZM5" s="0"/>
+      <c r="ZN5" s="0"/>
+      <c r="ZO5" s="0"/>
+      <c r="ZP5" s="0"/>
+      <c r="ZQ5" s="0"/>
+      <c r="ZR5" s="0"/>
+      <c r="ZS5" s="0"/>
+      <c r="ZT5" s="0"/>
+      <c r="ZU5" s="0"/>
+      <c r="ZV5" s="0"/>
+      <c r="ZW5" s="0"/>
+      <c r="ZX5" s="0"/>
+      <c r="ZY5" s="0"/>
+      <c r="ZZ5" s="0"/>
+      <c r="AAA5" s="0"/>
+      <c r="AAB5" s="0"/>
+      <c r="AAC5" s="0"/>
+      <c r="AAD5" s="0"/>
+      <c r="AAE5" s="0"/>
+      <c r="AAF5" s="0"/>
+      <c r="AAG5" s="0"/>
+      <c r="AAH5" s="0"/>
+      <c r="AAI5" s="0"/>
+      <c r="AAJ5" s="0"/>
+      <c r="AAK5" s="0"/>
+      <c r="AAL5" s="0"/>
+      <c r="AAM5" s="0"/>
+      <c r="AAN5" s="0"/>
+      <c r="AAO5" s="0"/>
+      <c r="AAP5" s="0"/>
+      <c r="AAQ5" s="0"/>
+      <c r="AAR5" s="0"/>
+      <c r="AAS5" s="0"/>
+      <c r="AAT5" s="0"/>
+      <c r="AAU5" s="0"/>
+      <c r="AAV5" s="0"/>
+      <c r="AAW5" s="0"/>
+      <c r="AAX5" s="0"/>
+      <c r="AAY5" s="0"/>
+      <c r="AAZ5" s="0"/>
+      <c r="ABA5" s="0"/>
+      <c r="ABB5" s="0"/>
+      <c r="ABC5" s="0"/>
+      <c r="ABD5" s="0"/>
+      <c r="ABE5" s="0"/>
+      <c r="ABF5" s="0"/>
+      <c r="ABG5" s="0"/>
+      <c r="ABH5" s="0"/>
+      <c r="ABI5" s="0"/>
+      <c r="ABJ5" s="0"/>
+      <c r="ABK5" s="0"/>
+      <c r="ABL5" s="0"/>
+      <c r="ABM5" s="0"/>
+      <c r="ABN5" s="0"/>
+      <c r="ABO5" s="0"/>
+      <c r="ABP5" s="0"/>
+      <c r="ABQ5" s="0"/>
+      <c r="ABR5" s="0"/>
+      <c r="ABS5" s="0"/>
+      <c r="ABT5" s="0"/>
+      <c r="ABU5" s="0"/>
+      <c r="ABV5" s="0"/>
+      <c r="ABW5" s="0"/>
+      <c r="ABX5" s="0"/>
+      <c r="ABY5" s="0"/>
+      <c r="ABZ5" s="0"/>
+      <c r="ACA5" s="0"/>
+      <c r="ACB5" s="0"/>
+      <c r="ACC5" s="0"/>
+      <c r="ACD5" s="0"/>
+      <c r="ACE5" s="0"/>
+      <c r="ACF5" s="0"/>
+      <c r="ACG5" s="0"/>
+      <c r="ACH5" s="0"/>
+      <c r="ACI5" s="0"/>
+      <c r="ACJ5" s="0"/>
+      <c r="ACK5" s="0"/>
+      <c r="ACL5" s="0"/>
+      <c r="ACM5" s="0"/>
+      <c r="ACN5" s="0"/>
+      <c r="ACO5" s="0"/>
+      <c r="ACP5" s="0"/>
+      <c r="ACQ5" s="0"/>
+      <c r="ACR5" s="0"/>
+      <c r="ACS5" s="0"/>
+      <c r="ACT5" s="0"/>
+      <c r="ACU5" s="0"/>
+      <c r="ACV5" s="0"/>
+      <c r="ACW5" s="0"/>
+      <c r="ACX5" s="0"/>
+      <c r="ACY5" s="0"/>
+      <c r="ACZ5" s="0"/>
+      <c r="ADA5" s="0"/>
+      <c r="ADB5" s="0"/>
+      <c r="ADC5" s="0"/>
+      <c r="ADD5" s="0"/>
+      <c r="ADE5" s="0"/>
+      <c r="ADF5" s="0"/>
+      <c r="ADG5" s="0"/>
+      <c r="ADH5" s="0"/>
+      <c r="ADI5" s="0"/>
+      <c r="ADJ5" s="0"/>
+      <c r="ADK5" s="0"/>
+      <c r="ADL5" s="0"/>
+      <c r="ADM5" s="0"/>
+      <c r="ADN5" s="0"/>
+      <c r="ADO5" s="0"/>
+      <c r="ADP5" s="0"/>
+      <c r="ADQ5" s="0"/>
+      <c r="ADR5" s="0"/>
+      <c r="ADS5" s="0"/>
+      <c r="ADT5" s="0"/>
+      <c r="ADU5" s="0"/>
+      <c r="ADV5" s="0"/>
+      <c r="ADW5" s="0"/>
+      <c r="ADX5" s="0"/>
+      <c r="ADY5" s="0"/>
+      <c r="ADZ5" s="0"/>
+      <c r="AEA5" s="0"/>
+      <c r="AEB5" s="0"/>
+      <c r="AEC5" s="0"/>
+      <c r="AED5" s="0"/>
+      <c r="AEE5" s="0"/>
+      <c r="AEF5" s="0"/>
+      <c r="AEG5" s="0"/>
+      <c r="AEH5" s="0"/>
+      <c r="AEI5" s="0"/>
+      <c r="AEJ5" s="0"/>
+      <c r="AEK5" s="0"/>
+      <c r="AEL5" s="0"/>
+      <c r="AEM5" s="0"/>
+      <c r="AEN5" s="0"/>
+      <c r="AEO5" s="0"/>
+      <c r="AEP5" s="0"/>
+      <c r="AEQ5" s="0"/>
+      <c r="AER5" s="0"/>
+      <c r="AES5" s="0"/>
+      <c r="AET5" s="0"/>
+      <c r="AEU5" s="0"/>
+      <c r="AEV5" s="0"/>
+      <c r="AEW5" s="0"/>
+      <c r="AEX5" s="0"/>
+      <c r="AEY5" s="0"/>
+      <c r="AEZ5" s="0"/>
+      <c r="AFA5" s="0"/>
+      <c r="AFB5" s="0"/>
+      <c r="AFC5" s="0"/>
+      <c r="AFD5" s="0"/>
+      <c r="AFE5" s="0"/>
+      <c r="AFF5" s="0"/>
+      <c r="AFG5" s="0"/>
+      <c r="AFH5" s="0"/>
+      <c r="AFI5" s="0"/>
+      <c r="AFJ5" s="0"/>
+      <c r="AFK5" s="0"/>
+      <c r="AFL5" s="0"/>
+      <c r="AFM5" s="0"/>
+      <c r="AFN5" s="0"/>
+      <c r="AFO5" s="0"/>
+      <c r="AFP5" s="0"/>
+      <c r="AFQ5" s="0"/>
+      <c r="AFR5" s="0"/>
+      <c r="AFS5" s="0"/>
+      <c r="AFT5" s="0"/>
+      <c r="AFU5" s="0"/>
+      <c r="AFV5" s="0"/>
+      <c r="AFW5" s="0"/>
+      <c r="AFX5" s="0"/>
+      <c r="AFY5" s="0"/>
+      <c r="AFZ5" s="0"/>
+      <c r="AGA5" s="0"/>
+      <c r="AGB5" s="0"/>
+      <c r="AGC5" s="0"/>
+      <c r="AGD5" s="0"/>
+      <c r="AGE5" s="0"/>
+      <c r="AGF5" s="0"/>
+      <c r="AGG5" s="0"/>
+      <c r="AGH5" s="0"/>
+      <c r="AGI5" s="0"/>
+      <c r="AGJ5" s="0"/>
+      <c r="AGK5" s="0"/>
+      <c r="AGL5" s="0"/>
+      <c r="AGM5" s="0"/>
+      <c r="AGN5" s="0"/>
+      <c r="AGO5" s="0"/>
+      <c r="AGP5" s="0"/>
+      <c r="AGQ5" s="0"/>
+      <c r="AGR5" s="0"/>
+      <c r="AGS5" s="0"/>
+      <c r="AGT5" s="0"/>
+      <c r="AGU5" s="0"/>
+      <c r="AGV5" s="0"/>
+      <c r="AGW5" s="0"/>
+      <c r="AGX5" s="0"/>
+      <c r="AGY5" s="0"/>
+      <c r="AGZ5" s="0"/>
+      <c r="AHA5" s="0"/>
+      <c r="AHB5" s="0"/>
+      <c r="AHC5" s="0"/>
+      <c r="AHD5" s="0"/>
+      <c r="AHE5" s="0"/>
+      <c r="AHF5" s="0"/>
+      <c r="AHG5" s="0"/>
+      <c r="AHH5" s="0"/>
+      <c r="AHI5" s="0"/>
+      <c r="AHJ5" s="0"/>
+      <c r="AHK5" s="0"/>
+      <c r="AHL5" s="0"/>
+      <c r="AHM5" s="0"/>
+      <c r="AHN5" s="0"/>
+      <c r="AHO5" s="0"/>
+      <c r="AHP5" s="0"/>
+      <c r="AHQ5" s="0"/>
+      <c r="AHR5" s="0"/>
+      <c r="AHS5" s="0"/>
+      <c r="AHT5" s="0"/>
+      <c r="AHU5" s="0"/>
+      <c r="AHV5" s="0"/>
+      <c r="AHW5" s="0"/>
+      <c r="AHX5" s="0"/>
+      <c r="AHY5" s="0"/>
+      <c r="AHZ5" s="0"/>
+      <c r="AIA5" s="0"/>
+      <c r="AIB5" s="0"/>
+      <c r="AIC5" s="0"/>
+      <c r="AID5" s="0"/>
+      <c r="AIE5" s="0"/>
+      <c r="AIF5" s="0"/>
+      <c r="AIG5" s="0"/>
+      <c r="AIH5" s="0"/>
+      <c r="AII5" s="0"/>
+      <c r="AIJ5" s="0"/>
+      <c r="AIK5" s="0"/>
+      <c r="AIL5" s="0"/>
+      <c r="AIM5" s="0"/>
+      <c r="AIN5" s="0"/>
+      <c r="AIO5" s="0"/>
+      <c r="AIP5" s="0"/>
+      <c r="AIQ5" s="0"/>
+      <c r="AIR5" s="0"/>
+      <c r="AIS5" s="0"/>
+      <c r="AIT5" s="0"/>
+      <c r="AIU5" s="0"/>
+      <c r="AIV5" s="0"/>
+      <c r="AIW5" s="0"/>
+      <c r="AIX5" s="0"/>
+      <c r="AIY5" s="0"/>
+      <c r="AIZ5" s="0"/>
+      <c r="AJA5" s="0"/>
+      <c r="AJB5" s="0"/>
+      <c r="AJC5" s="0"/>
+      <c r="AJD5" s="0"/>
+      <c r="AJE5" s="0"/>
+      <c r="AJF5" s="0"/>
+      <c r="AJG5" s="0"/>
+      <c r="AJH5" s="0"/>
+      <c r="AJI5" s="0"/>
+      <c r="AJJ5" s="0"/>
+      <c r="AJK5" s="0"/>
+      <c r="AJL5" s="0"/>
+      <c r="AJM5" s="0"/>
+      <c r="AJN5" s="0"/>
+      <c r="AJO5" s="0"/>
+      <c r="AJP5" s="0"/>
+      <c r="AJQ5" s="0"/>
+      <c r="AJR5" s="0"/>
+      <c r="AJS5" s="0"/>
+      <c r="AJT5" s="0"/>
+      <c r="AJU5" s="0"/>
+      <c r="AJV5" s="0"/>
+      <c r="AJW5" s="0"/>
+      <c r="AJX5" s="0"/>
+      <c r="AJY5" s="0"/>
+      <c r="AJZ5" s="0"/>
+      <c r="AKA5" s="0"/>
+      <c r="AKB5" s="0"/>
+      <c r="AKC5" s="0"/>
+      <c r="AKD5" s="0"/>
+      <c r="AKE5" s="0"/>
+      <c r="AKF5" s="0"/>
+      <c r="AKG5" s="0"/>
+      <c r="AKH5" s="0"/>
+      <c r="AKI5" s="0"/>
+      <c r="AKJ5" s="0"/>
+      <c r="AKK5" s="0"/>
+      <c r="AKL5" s="0"/>
+      <c r="AKM5" s="0"/>
+      <c r="AKN5" s="0"/>
+      <c r="AKO5" s="0"/>
+      <c r="AKP5" s="0"/>
+      <c r="AKQ5" s="0"/>
+      <c r="AKR5" s="0"/>
+      <c r="AKS5" s="0"/>
+      <c r="AKT5" s="0"/>
+      <c r="AKU5" s="0"/>
+      <c r="AKV5" s="0"/>
+      <c r="AKW5" s="0"/>
+      <c r="AKX5" s="0"/>
+      <c r="AKY5" s="0"/>
+      <c r="AKZ5" s="0"/>
+      <c r="ALA5" s="0"/>
+      <c r="ALB5" s="0"/>
+      <c r="ALC5" s="0"/>
+      <c r="ALD5" s="0"/>
+      <c r="ALE5" s="0"/>
+      <c r="ALF5" s="0"/>
+      <c r="ALG5" s="0"/>
+      <c r="ALH5" s="0"/>
+      <c r="ALI5" s="0"/>
+      <c r="ALJ5" s="0"/>
+      <c r="ALK5" s="0"/>
+      <c r="ALL5" s="0"/>
+      <c r="ALM5" s="0"/>
+      <c r="ALN5" s="0"/>
+      <c r="ALO5" s="0"/>
+      <c r="ALP5" s="0"/>
+      <c r="ALQ5" s="0"/>
+      <c r="ALR5" s="0"/>
+      <c r="ALS5" s="0"/>
+      <c r="ALT5" s="0"/>
+      <c r="ALU5" s="0"/>
+      <c r="ALV5" s="0"/>
+      <c r="ALW5" s="0"/>
+      <c r="ALX5" s="0"/>
+      <c r="ALY5" s="0"/>
+      <c r="ALZ5" s="0"/>
+      <c r="AMA5" s="0"/>
+      <c r="AMB5" s="0"/>
+      <c r="AMC5" s="0"/>
+      <c r="AMD5" s="0"/>
+      <c r="AME5" s="0"/>
+      <c r="AMF5" s="0"/>
+      <c r="AMG5" s="0"/>
+      <c r="AMH5" s="0"/>
+      <c r="AMI5" s="0"/>
+      <c r="AMJ5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="17" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="11" t="s">
+      <c r="C6" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="I6" s="12"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="M6" s="7" t="s">
-        <v>32</v>
+      <c r="D6" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="16"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" s="15"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>29</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="O6" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q6" s="0"/>
+      <c r="R6" s="0"/>
+      <c r="S6" s="0"/>
+      <c r="T6" s="0"/>
+      <c r="U6" s="0"/>
+      <c r="V6" s="0"/>
+      <c r="W6" s="0"/>
+      <c r="X6" s="0"/>
+      <c r="Y6" s="0"/>
+      <c r="Z6" s="0"/>
+      <c r="AA6" s="0"/>
+      <c r="AB6" s="0"/>
+      <c r="AC6" s="0"/>
+      <c r="AD6" s="0"/>
+      <c r="AE6" s="0"/>
+      <c r="AF6" s="0"/>
+      <c r="AG6" s="0"/>
+      <c r="AH6" s="0"/>
+      <c r="AI6" s="0"/>
+      <c r="AJ6" s="0"/>
+      <c r="AK6" s="0"/>
+      <c r="AL6" s="0"/>
+      <c r="AM6" s="0"/>
+      <c r="AN6" s="0"/>
+      <c r="AO6" s="0"/>
+      <c r="AP6" s="0"/>
+      <c r="AQ6" s="0"/>
+      <c r="AR6" s="0"/>
+      <c r="AS6" s="0"/>
+      <c r="AT6" s="0"/>
+      <c r="AU6" s="0"/>
+      <c r="AV6" s="0"/>
+      <c r="AW6" s="0"/>
+      <c r="AX6" s="0"/>
+      <c r="AY6" s="0"/>
+      <c r="AZ6" s="0"/>
+      <c r="BA6" s="0"/>
+      <c r="BB6" s="0"/>
+      <c r="BC6" s="0"/>
+      <c r="BD6" s="0"/>
+      <c r="BE6" s="0"/>
+      <c r="BF6" s="0"/>
+      <c r="BG6" s="0"/>
+      <c r="BH6" s="0"/>
+      <c r="BI6" s="0"/>
+      <c r="BJ6" s="0"/>
+      <c r="BK6" s="0"/>
+      <c r="BL6" s="0"/>
+      <c r="BM6" s="0"/>
+      <c r="BN6" s="0"/>
+      <c r="BO6" s="0"/>
+      <c r="BP6" s="0"/>
+      <c r="BQ6" s="0"/>
+      <c r="BR6" s="0"/>
+      <c r="BS6" s="0"/>
+      <c r="BT6" s="0"/>
+      <c r="BU6" s="0"/>
+      <c r="BV6" s="0"/>
+      <c r="BW6" s="0"/>
+      <c r="BX6" s="0"/>
+      <c r="BY6" s="0"/>
+      <c r="BZ6" s="0"/>
+      <c r="CA6" s="0"/>
+      <c r="CB6" s="0"/>
+      <c r="CC6" s="0"/>
+      <c r="CD6" s="0"/>
+      <c r="CE6" s="0"/>
+      <c r="CF6" s="0"/>
+      <c r="CG6" s="0"/>
+      <c r="CH6" s="0"/>
+      <c r="CI6" s="0"/>
+      <c r="CJ6" s="0"/>
+      <c r="CK6" s="0"/>
+      <c r="CL6" s="0"/>
+      <c r="CM6" s="0"/>
+      <c r="CN6" s="0"/>
+      <c r="CO6" s="0"/>
+      <c r="CP6" s="0"/>
+      <c r="CQ6" s="0"/>
+      <c r="CR6" s="0"/>
+      <c r="CS6" s="0"/>
+      <c r="CT6" s="0"/>
+      <c r="CU6" s="0"/>
+      <c r="CV6" s="0"/>
+      <c r="CW6" s="0"/>
+      <c r="CX6" s="0"/>
+      <c r="CY6" s="0"/>
+      <c r="CZ6" s="0"/>
+      <c r="DA6" s="0"/>
+      <c r="DB6" s="0"/>
+      <c r="DC6" s="0"/>
+      <c r="DD6" s="0"/>
+      <c r="DE6" s="0"/>
+      <c r="DF6" s="0"/>
+      <c r="DG6" s="0"/>
+      <c r="DH6" s="0"/>
+      <c r="DI6" s="0"/>
+      <c r="DJ6" s="0"/>
+      <c r="DK6" s="0"/>
+      <c r="DL6" s="0"/>
+      <c r="DM6" s="0"/>
+      <c r="DN6" s="0"/>
+      <c r="DO6" s="0"/>
+      <c r="DP6" s="0"/>
+      <c r="DQ6" s="0"/>
+      <c r="DR6" s="0"/>
+      <c r="DS6" s="0"/>
+      <c r="DT6" s="0"/>
+      <c r="DU6" s="0"/>
+      <c r="DV6" s="0"/>
+      <c r="DW6" s="0"/>
+      <c r="DX6" s="0"/>
+      <c r="DY6" s="0"/>
+      <c r="DZ6" s="0"/>
+      <c r="EA6" s="0"/>
+      <c r="EB6" s="0"/>
+      <c r="EC6" s="0"/>
+      <c r="ED6" s="0"/>
+      <c r="EE6" s="0"/>
+      <c r="EF6" s="0"/>
+      <c r="EG6" s="0"/>
+      <c r="EH6" s="0"/>
+      <c r="EI6" s="0"/>
+      <c r="EJ6" s="0"/>
+      <c r="EK6" s="0"/>
+      <c r="EL6" s="0"/>
+      <c r="EM6" s="0"/>
+      <c r="EN6" s="0"/>
+      <c r="EO6" s="0"/>
+      <c r="EP6" s="0"/>
+      <c r="EQ6" s="0"/>
+      <c r="ER6" s="0"/>
+      <c r="ES6" s="0"/>
+      <c r="ET6" s="0"/>
+      <c r="EU6" s="0"/>
+      <c r="EV6" s="0"/>
+      <c r="EW6" s="0"/>
+      <c r="EX6" s="0"/>
+      <c r="EY6" s="0"/>
+      <c r="EZ6" s="0"/>
+      <c r="FA6" s="0"/>
+      <c r="FB6" s="0"/>
+      <c r="FC6" s="0"/>
+      <c r="FD6" s="0"/>
+      <c r="FE6" s="0"/>
+      <c r="FF6" s="0"/>
+      <c r="FG6" s="0"/>
+      <c r="FH6" s="0"/>
+      <c r="FI6" s="0"/>
+      <c r="FJ6" s="0"/>
+      <c r="FK6" s="0"/>
+      <c r="FL6" s="0"/>
+      <c r="FM6" s="0"/>
+      <c r="FN6" s="0"/>
+      <c r="FO6" s="0"/>
+      <c r="FP6" s="0"/>
+      <c r="FQ6" s="0"/>
+      <c r="FR6" s="0"/>
+      <c r="FS6" s="0"/>
+      <c r="FT6" s="0"/>
+      <c r="FU6" s="0"/>
+      <c r="FV6" s="0"/>
+      <c r="FW6" s="0"/>
+      <c r="FX6" s="0"/>
+      <c r="FY6" s="0"/>
+      <c r="FZ6" s="0"/>
+      <c r="GA6" s="0"/>
+      <c r="GB6" s="0"/>
+      <c r="GC6" s="0"/>
+      <c r="GD6" s="0"/>
+      <c r="GE6" s="0"/>
+      <c r="GF6" s="0"/>
+      <c r="GG6" s="0"/>
+      <c r="GH6" s="0"/>
+      <c r="GI6" s="0"/>
+      <c r="GJ6" s="0"/>
+      <c r="GK6" s="0"/>
+      <c r="GL6" s="0"/>
+      <c r="GM6" s="0"/>
+      <c r="GN6" s="0"/>
+      <c r="GO6" s="0"/>
+      <c r="GP6" s="0"/>
+      <c r="GQ6" s="0"/>
+      <c r="GR6" s="0"/>
+      <c r="GS6" s="0"/>
+      <c r="GT6" s="0"/>
+      <c r="GU6" s="0"/>
+      <c r="GV6" s="0"/>
+      <c r="GW6" s="0"/>
+      <c r="GX6" s="0"/>
+      <c r="GY6" s="0"/>
+      <c r="GZ6" s="0"/>
+      <c r="HA6" s="0"/>
+      <c r="HB6" s="0"/>
+      <c r="HC6" s="0"/>
+      <c r="HD6" s="0"/>
+      <c r="HE6" s="0"/>
+      <c r="HF6" s="0"/>
+      <c r="HG6" s="0"/>
+      <c r="HH6" s="0"/>
+      <c r="HI6" s="0"/>
+      <c r="HJ6" s="0"/>
+      <c r="HK6" s="0"/>
+      <c r="HL6" s="0"/>
+      <c r="HM6" s="0"/>
+      <c r="HN6" s="0"/>
+      <c r="HO6" s="0"/>
+      <c r="HP6" s="0"/>
+      <c r="HQ6" s="0"/>
+      <c r="HR6" s="0"/>
+      <c r="HS6" s="0"/>
+      <c r="HT6" s="0"/>
+      <c r="HU6" s="0"/>
+      <c r="HV6" s="0"/>
+      <c r="HW6" s="0"/>
+      <c r="HX6" s="0"/>
+      <c r="HY6" s="0"/>
+      <c r="HZ6" s="0"/>
+      <c r="IA6" s="0"/>
+      <c r="IB6" s="0"/>
+      <c r="IC6" s="0"/>
+      <c r="ID6" s="0"/>
+      <c r="IE6" s="0"/>
+      <c r="IF6" s="0"/>
+      <c r="IG6" s="0"/>
+      <c r="IH6" s="0"/>
+      <c r="II6" s="0"/>
+      <c r="IJ6" s="0"/>
+      <c r="IK6" s="0"/>
+      <c r="IL6" s="0"/>
+      <c r="IM6" s="0"/>
+      <c r="IN6" s="0"/>
+      <c r="IO6" s="0"/>
+      <c r="IP6" s="0"/>
+      <c r="IQ6" s="0"/>
+      <c r="IR6" s="0"/>
+      <c r="IS6" s="0"/>
+      <c r="IT6" s="0"/>
+      <c r="IU6" s="0"/>
+      <c r="IV6" s="0"/>
+      <c r="IW6" s="0"/>
+      <c r="IX6" s="0"/>
+      <c r="IY6" s="0"/>
+      <c r="IZ6" s="0"/>
+      <c r="JA6" s="0"/>
+      <c r="JB6" s="0"/>
+      <c r="JC6" s="0"/>
+      <c r="JD6" s="0"/>
+      <c r="JE6" s="0"/>
+      <c r="JF6" s="0"/>
+      <c r="JG6" s="0"/>
+      <c r="JH6" s="0"/>
+      <c r="JI6" s="0"/>
+      <c r="JJ6" s="0"/>
+      <c r="JK6" s="0"/>
+      <c r="JL6" s="0"/>
+      <c r="JM6" s="0"/>
+      <c r="JN6" s="0"/>
+      <c r="JO6" s="0"/>
+      <c r="JP6" s="0"/>
+      <c r="JQ6" s="0"/>
+      <c r="JR6" s="0"/>
+      <c r="JS6" s="0"/>
+      <c r="JT6" s="0"/>
+      <c r="JU6" s="0"/>
+      <c r="JV6" s="0"/>
+      <c r="JW6" s="0"/>
+      <c r="JX6" s="0"/>
+      <c r="JY6" s="0"/>
+      <c r="JZ6" s="0"/>
+      <c r="KA6" s="0"/>
+      <c r="KB6" s="0"/>
+      <c r="KC6" s="0"/>
+      <c r="KD6" s="0"/>
+      <c r="KE6" s="0"/>
+      <c r="KF6" s="0"/>
+      <c r="KG6" s="0"/>
+      <c r="KH6" s="0"/>
+      <c r="KI6" s="0"/>
+      <c r="KJ6" s="0"/>
+      <c r="KK6" s="0"/>
+      <c r="KL6" s="0"/>
+      <c r="KM6" s="0"/>
+      <c r="KN6" s="0"/>
+      <c r="KO6" s="0"/>
+      <c r="KP6" s="0"/>
+      <c r="KQ6" s="0"/>
+      <c r="KR6" s="0"/>
+      <c r="KS6" s="0"/>
+      <c r="KT6" s="0"/>
+      <c r="KU6" s="0"/>
+      <c r="KV6" s="0"/>
+      <c r="KW6" s="0"/>
+      <c r="KX6" s="0"/>
+      <c r="KY6" s="0"/>
+      <c r="KZ6" s="0"/>
+      <c r="LA6" s="0"/>
+      <c r="LB6" s="0"/>
+      <c r="LC6" s="0"/>
+      <c r="LD6" s="0"/>
+      <c r="LE6" s="0"/>
+      <c r="LF6" s="0"/>
+      <c r="LG6" s="0"/>
+      <c r="LH6" s="0"/>
+      <c r="LI6" s="0"/>
+      <c r="LJ6" s="0"/>
+      <c r="LK6" s="0"/>
+      <c r="LL6" s="0"/>
+      <c r="LM6" s="0"/>
+      <c r="LN6" s="0"/>
+      <c r="LO6" s="0"/>
+      <c r="LP6" s="0"/>
+      <c r="LQ6" s="0"/>
+      <c r="LR6" s="0"/>
+      <c r="LS6" s="0"/>
+      <c r="LT6" s="0"/>
+      <c r="LU6" s="0"/>
+      <c r="LV6" s="0"/>
+      <c r="LW6" s="0"/>
+      <c r="LX6" s="0"/>
+      <c r="LY6" s="0"/>
+      <c r="LZ6" s="0"/>
+      <c r="MA6" s="0"/>
+      <c r="MB6" s="0"/>
+      <c r="MC6" s="0"/>
+      <c r="MD6" s="0"/>
+      <c r="ME6" s="0"/>
+      <c r="MF6" s="0"/>
+      <c r="MG6" s="0"/>
+      <c r="MH6" s="0"/>
+      <c r="MI6" s="0"/>
+      <c r="MJ6" s="0"/>
+      <c r="MK6" s="0"/>
+      <c r="ML6" s="0"/>
+      <c r="MM6" s="0"/>
+      <c r="MN6" s="0"/>
+      <c r="MO6" s="0"/>
+      <c r="MP6" s="0"/>
+      <c r="MQ6" s="0"/>
+      <c r="MR6" s="0"/>
+      <c r="MS6" s="0"/>
+      <c r="MT6" s="0"/>
+      <c r="MU6" s="0"/>
+      <c r="MV6" s="0"/>
+      <c r="MW6" s="0"/>
+      <c r="MX6" s="0"/>
+      <c r="MY6" s="0"/>
+      <c r="MZ6" s="0"/>
+      <c r="NA6" s="0"/>
+      <c r="NB6" s="0"/>
+      <c r="NC6" s="0"/>
+      <c r="ND6" s="0"/>
+      <c r="NE6" s="0"/>
+      <c r="NF6" s="0"/>
+      <c r="NG6" s="0"/>
+      <c r="NH6" s="0"/>
+      <c r="NI6" s="0"/>
+      <c r="NJ6" s="0"/>
+      <c r="NK6" s="0"/>
+      <c r="NL6" s="0"/>
+      <c r="NM6" s="0"/>
+      <c r="NN6" s="0"/>
+      <c r="NO6" s="0"/>
+      <c r="NP6" s="0"/>
+      <c r="NQ6" s="0"/>
+      <c r="NR6" s="0"/>
+      <c r="NS6" s="0"/>
+      <c r="NT6" s="0"/>
+      <c r="NU6" s="0"/>
+      <c r="NV6" s="0"/>
+      <c r="NW6" s="0"/>
+      <c r="NX6" s="0"/>
+      <c r="NY6" s="0"/>
+      <c r="NZ6" s="0"/>
+      <c r="OA6" s="0"/>
+      <c r="OB6" s="0"/>
+      <c r="OC6" s="0"/>
+      <c r="OD6" s="0"/>
+      <c r="OE6" s="0"/>
+      <c r="OF6" s="0"/>
+      <c r="OG6" s="0"/>
+      <c r="OH6" s="0"/>
+      <c r="OI6" s="0"/>
+      <c r="OJ6" s="0"/>
+      <c r="OK6" s="0"/>
+      <c r="OL6" s="0"/>
+      <c r="OM6" s="0"/>
+      <c r="ON6" s="0"/>
+      <c r="OO6" s="0"/>
+      <c r="OP6" s="0"/>
+      <c r="OQ6" s="0"/>
+      <c r="OR6" s="0"/>
+      <c r="OS6" s="0"/>
+      <c r="OT6" s="0"/>
+      <c r="OU6" s="0"/>
+      <c r="OV6" s="0"/>
+      <c r="OW6" s="0"/>
+      <c r="OX6" s="0"/>
+      <c r="OY6" s="0"/>
+      <c r="OZ6" s="0"/>
+      <c r="PA6" s="0"/>
+      <c r="PB6" s="0"/>
+      <c r="PC6" s="0"/>
+      <c r="PD6" s="0"/>
+      <c r="PE6" s="0"/>
+      <c r="PF6" s="0"/>
+      <c r="PG6" s="0"/>
+      <c r="PH6" s="0"/>
+      <c r="PI6" s="0"/>
+      <c r="PJ6" s="0"/>
+      <c r="PK6" s="0"/>
+      <c r="PL6" s="0"/>
+      <c r="PM6" s="0"/>
+      <c r="PN6" s="0"/>
+      <c r="PO6" s="0"/>
+      <c r="PP6" s="0"/>
+      <c r="PQ6" s="0"/>
+      <c r="PR6" s="0"/>
+      <c r="PS6" s="0"/>
+      <c r="PT6" s="0"/>
+      <c r="PU6" s="0"/>
+      <c r="PV6" s="0"/>
+      <c r="PW6" s="0"/>
+      <c r="PX6" s="0"/>
+      <c r="PY6" s="0"/>
+      <c r="PZ6" s="0"/>
+      <c r="QA6" s="0"/>
+      <c r="QB6" s="0"/>
+      <c r="QC6" s="0"/>
+      <c r="QD6" s="0"/>
+      <c r="QE6" s="0"/>
+      <c r="QF6" s="0"/>
+      <c r="QG6" s="0"/>
+      <c r="QH6" s="0"/>
+      <c r="QI6" s="0"/>
+      <c r="QJ6" s="0"/>
+      <c r="QK6" s="0"/>
+      <c r="QL6" s="0"/>
+      <c r="QM6" s="0"/>
+      <c r="QN6" s="0"/>
+      <c r="QO6" s="0"/>
+      <c r="QP6" s="0"/>
+      <c r="QQ6" s="0"/>
+      <c r="QR6" s="0"/>
+      <c r="QS6" s="0"/>
+      <c r="QT6" s="0"/>
+      <c r="QU6" s="0"/>
+      <c r="QV6" s="0"/>
+      <c r="QW6" s="0"/>
+      <c r="QX6" s="0"/>
+      <c r="QY6" s="0"/>
+      <c r="QZ6" s="0"/>
+      <c r="RA6" s="0"/>
+      <c r="RB6" s="0"/>
+      <c r="RC6" s="0"/>
+      <c r="RD6" s="0"/>
+      <c r="RE6" s="0"/>
+      <c r="RF6" s="0"/>
+      <c r="RG6" s="0"/>
+      <c r="RH6" s="0"/>
+      <c r="RI6" s="0"/>
+      <c r="RJ6" s="0"/>
+      <c r="RK6" s="0"/>
+      <c r="RL6" s="0"/>
+      <c r="RM6" s="0"/>
+      <c r="RN6" s="0"/>
+      <c r="RO6" s="0"/>
+      <c r="RP6" s="0"/>
+      <c r="RQ6" s="0"/>
+      <c r="RR6" s="0"/>
+      <c r="RS6" s="0"/>
+      <c r="RT6" s="0"/>
+      <c r="RU6" s="0"/>
+      <c r="RV6" s="0"/>
+      <c r="RW6" s="0"/>
+      <c r="RX6" s="0"/>
+      <c r="RY6" s="0"/>
+      <c r="RZ6" s="0"/>
+      <c r="SA6" s="0"/>
+      <c r="SB6" s="0"/>
+      <c r="SC6" s="0"/>
+      <c r="SD6" s="0"/>
+      <c r="SE6" s="0"/>
+      <c r="SF6" s="0"/>
+      <c r="SG6" s="0"/>
+      <c r="SH6" s="0"/>
+      <c r="SI6" s="0"/>
+      <c r="SJ6" s="0"/>
+      <c r="SK6" s="0"/>
+      <c r="SL6" s="0"/>
+      <c r="SM6" s="0"/>
+      <c r="SN6" s="0"/>
+      <c r="SO6" s="0"/>
+      <c r="SP6" s="0"/>
+      <c r="SQ6" s="0"/>
+      <c r="SR6" s="0"/>
+      <c r="SS6" s="0"/>
+      <c r="ST6" s="0"/>
+      <c r="SU6" s="0"/>
+      <c r="SV6" s="0"/>
+      <c r="SW6" s="0"/>
+      <c r="SX6" s="0"/>
+      <c r="SY6" s="0"/>
+      <c r="SZ6" s="0"/>
+      <c r="TA6" s="0"/>
+      <c r="TB6" s="0"/>
+      <c r="TC6" s="0"/>
+      <c r="TD6" s="0"/>
+      <c r="TE6" s="0"/>
+      <c r="TF6" s="0"/>
+      <c r="TG6" s="0"/>
+      <c r="TH6" s="0"/>
+      <c r="TI6" s="0"/>
+      <c r="TJ6" s="0"/>
+      <c r="TK6" s="0"/>
+      <c r="TL6" s="0"/>
+      <c r="TM6" s="0"/>
+      <c r="TN6" s="0"/>
+      <c r="TO6" s="0"/>
+      <c r="TP6" s="0"/>
+      <c r="TQ6" s="0"/>
+      <c r="TR6" s="0"/>
+      <c r="TS6" s="0"/>
+      <c r="TT6" s="0"/>
+      <c r="TU6" s="0"/>
+      <c r="TV6" s="0"/>
+      <c r="TW6" s="0"/>
+      <c r="TX6" s="0"/>
+      <c r="TY6" s="0"/>
+      <c r="TZ6" s="0"/>
+      <c r="UA6" s="0"/>
+      <c r="UB6" s="0"/>
+      <c r="UC6" s="0"/>
+      <c r="UD6" s="0"/>
+      <c r="UE6" s="0"/>
+      <c r="UF6" s="0"/>
+      <c r="UG6" s="0"/>
+      <c r="UH6" s="0"/>
+      <c r="UI6" s="0"/>
+      <c r="UJ6" s="0"/>
+      <c r="UK6" s="0"/>
+      <c r="UL6" s="0"/>
+      <c r="UM6" s="0"/>
+      <c r="UN6" s="0"/>
+      <c r="UO6" s="0"/>
+      <c r="UP6" s="0"/>
+      <c r="UQ6" s="0"/>
+      <c r="UR6" s="0"/>
+      <c r="US6" s="0"/>
+      <c r="UT6" s="0"/>
+      <c r="UU6" s="0"/>
+      <c r="UV6" s="0"/>
+      <c r="UW6" s="0"/>
+      <c r="UX6" s="0"/>
+      <c r="UY6" s="0"/>
+      <c r="UZ6" s="0"/>
+      <c r="VA6" s="0"/>
+      <c r="VB6" s="0"/>
+      <c r="VC6" s="0"/>
+      <c r="VD6" s="0"/>
+      <c r="VE6" s="0"/>
+      <c r="VF6" s="0"/>
+      <c r="VG6" s="0"/>
+      <c r="VH6" s="0"/>
+      <c r="VI6" s="0"/>
+      <c r="VJ6" s="0"/>
+      <c r="VK6" s="0"/>
+      <c r="VL6" s="0"/>
+      <c r="VM6" s="0"/>
+      <c r="VN6" s="0"/>
+      <c r="VO6" s="0"/>
+      <c r="VP6" s="0"/>
+      <c r="VQ6" s="0"/>
+      <c r="VR6" s="0"/>
+      <c r="VS6" s="0"/>
+      <c r="VT6" s="0"/>
+      <c r="VU6" s="0"/>
+      <c r="VV6" s="0"/>
+      <c r="VW6" s="0"/>
+      <c r="VX6" s="0"/>
+      <c r="VY6" s="0"/>
+      <c r="VZ6" s="0"/>
+      <c r="WA6" s="0"/>
+      <c r="WB6" s="0"/>
+      <c r="WC6" s="0"/>
+      <c r="WD6" s="0"/>
+      <c r="WE6" s="0"/>
+      <c r="WF6" s="0"/>
+      <c r="WG6" s="0"/>
+      <c r="WH6" s="0"/>
+      <c r="WI6" s="0"/>
+      <c r="WJ6" s="0"/>
+      <c r="WK6" s="0"/>
+      <c r="WL6" s="0"/>
+      <c r="WM6" s="0"/>
+      <c r="WN6" s="0"/>
+      <c r="WO6" s="0"/>
+      <c r="WP6" s="0"/>
+      <c r="WQ6" s="0"/>
+      <c r="WR6" s="0"/>
+      <c r="WS6" s="0"/>
+      <c r="WT6" s="0"/>
+      <c r="WU6" s="0"/>
+      <c r="WV6" s="0"/>
+      <c r="WW6" s="0"/>
+      <c r="WX6" s="0"/>
+      <c r="WY6" s="0"/>
+      <c r="WZ6" s="0"/>
+      <c r="XA6" s="0"/>
+      <c r="XB6" s="0"/>
+      <c r="XC6" s="0"/>
+      <c r="XD6" s="0"/>
+      <c r="XE6" s="0"/>
+      <c r="XF6" s="0"/>
+      <c r="XG6" s="0"/>
+      <c r="XH6" s="0"/>
+      <c r="XI6" s="0"/>
+      <c r="XJ6" s="0"/>
+      <c r="XK6" s="0"/>
+      <c r="XL6" s="0"/>
+      <c r="XM6" s="0"/>
+      <c r="XN6" s="0"/>
+      <c r="XO6" s="0"/>
+      <c r="XP6" s="0"/>
+      <c r="XQ6" s="0"/>
+      <c r="XR6" s="0"/>
+      <c r="XS6" s="0"/>
+      <c r="XT6" s="0"/>
+      <c r="XU6" s="0"/>
+      <c r="XV6" s="0"/>
+      <c r="XW6" s="0"/>
+      <c r="XX6" s="0"/>
+      <c r="XY6" s="0"/>
+      <c r="XZ6" s="0"/>
+      <c r="YA6" s="0"/>
+      <c r="YB6" s="0"/>
+      <c r="YC6" s="0"/>
+      <c r="YD6" s="0"/>
+      <c r="YE6" s="0"/>
+      <c r="YF6" s="0"/>
+      <c r="YG6" s="0"/>
+      <c r="YH6" s="0"/>
+      <c r="YI6" s="0"/>
+      <c r="YJ6" s="0"/>
+      <c r="YK6" s="0"/>
+      <c r="YL6" s="0"/>
+      <c r="YM6" s="0"/>
+      <c r="YN6" s="0"/>
+      <c r="YO6" s="0"/>
+      <c r="YP6" s="0"/>
+      <c r="YQ6" s="0"/>
+      <c r="YR6" s="0"/>
+      <c r="YS6" s="0"/>
+      <c r="YT6" s="0"/>
+      <c r="YU6" s="0"/>
+      <c r="YV6" s="0"/>
+      <c r="YW6" s="0"/>
+      <c r="YX6" s="0"/>
+      <c r="YY6" s="0"/>
+      <c r="YZ6" s="0"/>
+      <c r="ZA6" s="0"/>
+      <c r="ZB6" s="0"/>
+      <c r="ZC6" s="0"/>
+      <c r="ZD6" s="0"/>
+      <c r="ZE6" s="0"/>
+      <c r="ZF6" s="0"/>
+      <c r="ZG6" s="0"/>
+      <c r="ZH6" s="0"/>
+      <c r="ZI6" s="0"/>
+      <c r="ZJ6" s="0"/>
+      <c r="ZK6" s="0"/>
+      <c r="ZL6" s="0"/>
+      <c r="ZM6" s="0"/>
+      <c r="ZN6" s="0"/>
+      <c r="ZO6" s="0"/>
+      <c r="ZP6" s="0"/>
+      <c r="ZQ6" s="0"/>
+      <c r="ZR6" s="0"/>
+      <c r="ZS6" s="0"/>
+      <c r="ZT6" s="0"/>
+      <c r="ZU6" s="0"/>
+      <c r="ZV6" s="0"/>
+      <c r="ZW6" s="0"/>
+      <c r="ZX6" s="0"/>
+      <c r="ZY6" s="0"/>
+      <c r="ZZ6" s="0"/>
+      <c r="AAA6" s="0"/>
+      <c r="AAB6" s="0"/>
+      <c r="AAC6" s="0"/>
+      <c r="AAD6" s="0"/>
+      <c r="AAE6" s="0"/>
+      <c r="AAF6" s="0"/>
+      <c r="AAG6" s="0"/>
+      <c r="AAH6" s="0"/>
+      <c r="AAI6" s="0"/>
+      <c r="AAJ6" s="0"/>
+      <c r="AAK6" s="0"/>
+      <c r="AAL6" s="0"/>
+      <c r="AAM6" s="0"/>
+      <c r="AAN6" s="0"/>
+      <c r="AAO6" s="0"/>
+      <c r="AAP6" s="0"/>
+      <c r="AAQ6" s="0"/>
+      <c r="AAR6" s="0"/>
+      <c r="AAS6" s="0"/>
+      <c r="AAT6" s="0"/>
+      <c r="AAU6" s="0"/>
+      <c r="AAV6" s="0"/>
+      <c r="AAW6" s="0"/>
+      <c r="AAX6" s="0"/>
+      <c r="AAY6" s="0"/>
+      <c r="AAZ6" s="0"/>
+      <c r="ABA6" s="0"/>
+      <c r="ABB6" s="0"/>
+      <c r="ABC6" s="0"/>
+      <c r="ABD6" s="0"/>
+      <c r="ABE6" s="0"/>
+      <c r="ABF6" s="0"/>
+      <c r="ABG6" s="0"/>
+      <c r="ABH6" s="0"/>
+      <c r="ABI6" s="0"/>
+      <c r="ABJ6" s="0"/>
+      <c r="ABK6" s="0"/>
+      <c r="ABL6" s="0"/>
+      <c r="ABM6" s="0"/>
+      <c r="ABN6" s="0"/>
+      <c r="ABO6" s="0"/>
+      <c r="ABP6" s="0"/>
+      <c r="ABQ6" s="0"/>
+      <c r="ABR6" s="0"/>
+      <c r="ABS6" s="0"/>
+      <c r="ABT6" s="0"/>
+      <c r="ABU6" s="0"/>
+      <c r="ABV6" s="0"/>
+      <c r="ABW6" s="0"/>
+      <c r="ABX6" s="0"/>
+      <c r="ABY6" s="0"/>
+      <c r="ABZ6" s="0"/>
+      <c r="ACA6" s="0"/>
+      <c r="ACB6" s="0"/>
+      <c r="ACC6" s="0"/>
+      <c r="ACD6" s="0"/>
+      <c r="ACE6" s="0"/>
+      <c r="ACF6" s="0"/>
+      <c r="ACG6" s="0"/>
+      <c r="ACH6" s="0"/>
+      <c r="ACI6" s="0"/>
+      <c r="ACJ6" s="0"/>
+      <c r="ACK6" s="0"/>
+      <c r="ACL6" s="0"/>
+      <c r="ACM6" s="0"/>
+      <c r="ACN6" s="0"/>
+      <c r="ACO6" s="0"/>
+      <c r="ACP6" s="0"/>
+      <c r="ACQ6" s="0"/>
+      <c r="ACR6" s="0"/>
+      <c r="ACS6" s="0"/>
+      <c r="ACT6" s="0"/>
+      <c r="ACU6" s="0"/>
+      <c r="ACV6" s="0"/>
+      <c r="ACW6" s="0"/>
+      <c r="ACX6" s="0"/>
+      <c r="ACY6" s="0"/>
+      <c r="ACZ6" s="0"/>
+      <c r="ADA6" s="0"/>
+      <c r="ADB6" s="0"/>
+      <c r="ADC6" s="0"/>
+      <c r="ADD6" s="0"/>
+      <c r="ADE6" s="0"/>
+      <c r="ADF6" s="0"/>
+      <c r="ADG6" s="0"/>
+      <c r="ADH6" s="0"/>
+      <c r="ADI6" s="0"/>
+      <c r="ADJ6" s="0"/>
+      <c r="ADK6" s="0"/>
+      <c r="ADL6" s="0"/>
+      <c r="ADM6" s="0"/>
+      <c r="ADN6" s="0"/>
+      <c r="ADO6" s="0"/>
+      <c r="ADP6" s="0"/>
+      <c r="ADQ6" s="0"/>
+      <c r="ADR6" s="0"/>
+      <c r="ADS6" s="0"/>
+      <c r="ADT6" s="0"/>
+      <c r="ADU6" s="0"/>
+      <c r="ADV6" s="0"/>
+      <c r="ADW6" s="0"/>
+      <c r="ADX6" s="0"/>
+      <c r="ADY6" s="0"/>
+      <c r="ADZ6" s="0"/>
+      <c r="AEA6" s="0"/>
+      <c r="AEB6" s="0"/>
+      <c r="AEC6" s="0"/>
+      <c r="AED6" s="0"/>
+      <c r="AEE6" s="0"/>
+      <c r="AEF6" s="0"/>
+      <c r="AEG6" s="0"/>
+      <c r="AEH6" s="0"/>
+      <c r="AEI6" s="0"/>
+      <c r="AEJ6" s="0"/>
+      <c r="AEK6" s="0"/>
+      <c r="AEL6" s="0"/>
+      <c r="AEM6" s="0"/>
+      <c r="AEN6" s="0"/>
+      <c r="AEO6" s="0"/>
+      <c r="AEP6" s="0"/>
+      <c r="AEQ6" s="0"/>
+      <c r="AER6" s="0"/>
+      <c r="AES6" s="0"/>
+      <c r="AET6" s="0"/>
+      <c r="AEU6" s="0"/>
+      <c r="AEV6" s="0"/>
+      <c r="AEW6" s="0"/>
+      <c r="AEX6" s="0"/>
+      <c r="AEY6" s="0"/>
+      <c r="AEZ6" s="0"/>
+      <c r="AFA6" s="0"/>
+      <c r="AFB6" s="0"/>
+      <c r="AFC6" s="0"/>
+      <c r="AFD6" s="0"/>
+      <c r="AFE6" s="0"/>
+      <c r="AFF6" s="0"/>
+      <c r="AFG6" s="0"/>
+      <c r="AFH6" s="0"/>
+      <c r="AFI6" s="0"/>
+      <c r="AFJ6" s="0"/>
+      <c r="AFK6" s="0"/>
+      <c r="AFL6" s="0"/>
+      <c r="AFM6" s="0"/>
+      <c r="AFN6" s="0"/>
+      <c r="AFO6" s="0"/>
+      <c r="AFP6" s="0"/>
+      <c r="AFQ6" s="0"/>
+      <c r="AFR6" s="0"/>
+      <c r="AFS6" s="0"/>
+      <c r="AFT6" s="0"/>
+      <c r="AFU6" s="0"/>
+      <c r="AFV6" s="0"/>
+      <c r="AFW6" s="0"/>
+      <c r="AFX6" s="0"/>
+      <c r="AFY6" s="0"/>
+      <c r="AFZ6" s="0"/>
+      <c r="AGA6" s="0"/>
+      <c r="AGB6" s="0"/>
+      <c r="AGC6" s="0"/>
+      <c r="AGD6" s="0"/>
+      <c r="AGE6" s="0"/>
+      <c r="AGF6" s="0"/>
+      <c r="AGG6" s="0"/>
+      <c r="AGH6" s="0"/>
+      <c r="AGI6" s="0"/>
+      <c r="AGJ6" s="0"/>
+      <c r="AGK6" s="0"/>
+      <c r="AGL6" s="0"/>
+      <c r="AGM6" s="0"/>
+      <c r="AGN6" s="0"/>
+      <c r="AGO6" s="0"/>
+      <c r="AGP6" s="0"/>
+      <c r="AGQ6" s="0"/>
+      <c r="AGR6" s="0"/>
+      <c r="AGS6" s="0"/>
+      <c r="AGT6" s="0"/>
+      <c r="AGU6" s="0"/>
+      <c r="AGV6" s="0"/>
+      <c r="AGW6" s="0"/>
+      <c r="AGX6" s="0"/>
+      <c r="AGY6" s="0"/>
+      <c r="AGZ6" s="0"/>
+      <c r="AHA6" s="0"/>
+      <c r="AHB6" s="0"/>
+      <c r="AHC6" s="0"/>
+      <c r="AHD6" s="0"/>
+      <c r="AHE6" s="0"/>
+      <c r="AHF6" s="0"/>
+      <c r="AHG6" s="0"/>
+      <c r="AHH6" s="0"/>
+      <c r="AHI6" s="0"/>
+      <c r="AHJ6" s="0"/>
+      <c r="AHK6" s="0"/>
+      <c r="AHL6" s="0"/>
+      <c r="AHM6" s="0"/>
+      <c r="AHN6" s="0"/>
+      <c r="AHO6" s="0"/>
+      <c r="AHP6" s="0"/>
+      <c r="AHQ6" s="0"/>
+      <c r="AHR6" s="0"/>
+      <c r="AHS6" s="0"/>
+      <c r="AHT6" s="0"/>
+      <c r="AHU6" s="0"/>
+      <c r="AHV6" s="0"/>
+      <c r="AHW6" s="0"/>
+      <c r="AHX6" s="0"/>
+      <c r="AHY6" s="0"/>
+      <c r="AHZ6" s="0"/>
+      <c r="AIA6" s="0"/>
+      <c r="AIB6" s="0"/>
+      <c r="AIC6" s="0"/>
+      <c r="AID6" s="0"/>
+      <c r="AIE6" s="0"/>
+      <c r="AIF6" s="0"/>
+      <c r="AIG6" s="0"/>
+      <c r="AIH6" s="0"/>
+      <c r="AII6" s="0"/>
+      <c r="AIJ6" s="0"/>
+      <c r="AIK6" s="0"/>
+      <c r="AIL6" s="0"/>
+      <c r="AIM6" s="0"/>
+      <c r="AIN6" s="0"/>
+      <c r="AIO6" s="0"/>
+      <c r="AIP6" s="0"/>
+      <c r="AIQ6" s="0"/>
+      <c r="AIR6" s="0"/>
+      <c r="AIS6" s="0"/>
+      <c r="AIT6" s="0"/>
+      <c r="AIU6" s="0"/>
+      <c r="AIV6" s="0"/>
+      <c r="AIW6" s="0"/>
+      <c r="AIX6" s="0"/>
+      <c r="AIY6" s="0"/>
+      <c r="AIZ6" s="0"/>
+      <c r="AJA6" s="0"/>
+      <c r="AJB6" s="0"/>
+      <c r="AJC6" s="0"/>
+      <c r="AJD6" s="0"/>
+      <c r="AJE6" s="0"/>
+      <c r="AJF6" s="0"/>
+      <c r="AJG6" s="0"/>
+      <c r="AJH6" s="0"/>
+      <c r="AJI6" s="0"/>
+      <c r="AJJ6" s="0"/>
+      <c r="AJK6" s="0"/>
+      <c r="AJL6" s="0"/>
+      <c r="AJM6" s="0"/>
+      <c r="AJN6" s="0"/>
+      <c r="AJO6" s="0"/>
+      <c r="AJP6" s="0"/>
+      <c r="AJQ6" s="0"/>
+      <c r="AJR6" s="0"/>
+      <c r="AJS6" s="0"/>
+      <c r="AJT6" s="0"/>
+      <c r="AJU6" s="0"/>
+      <c r="AJV6" s="0"/>
+      <c r="AJW6" s="0"/>
+      <c r="AJX6" s="0"/>
+      <c r="AJY6" s="0"/>
+      <c r="AJZ6" s="0"/>
+      <c r="AKA6" s="0"/>
+      <c r="AKB6" s="0"/>
+      <c r="AKC6" s="0"/>
+      <c r="AKD6" s="0"/>
+      <c r="AKE6" s="0"/>
+      <c r="AKF6" s="0"/>
+      <c r="AKG6" s="0"/>
+      <c r="AKH6" s="0"/>
+      <c r="AKI6" s="0"/>
+      <c r="AKJ6" s="0"/>
+      <c r="AKK6" s="0"/>
+      <c r="AKL6" s="0"/>
+      <c r="AKM6" s="0"/>
+      <c r="AKN6" s="0"/>
+      <c r="AKO6" s="0"/>
+      <c r="AKP6" s="0"/>
+      <c r="AKQ6" s="0"/>
+      <c r="AKR6" s="0"/>
+      <c r="AKS6" s="0"/>
+      <c r="AKT6" s="0"/>
+      <c r="AKU6" s="0"/>
+      <c r="AKV6" s="0"/>
+      <c r="AKW6" s="0"/>
+      <c r="AKX6" s="0"/>
+      <c r="AKY6" s="0"/>
+      <c r="AKZ6" s="0"/>
+      <c r="ALA6" s="0"/>
+      <c r="ALB6" s="0"/>
+      <c r="ALC6" s="0"/>
+      <c r="ALD6" s="0"/>
+      <c r="ALE6" s="0"/>
+      <c r="ALF6" s="0"/>
+      <c r="ALG6" s="0"/>
+      <c r="ALH6" s="0"/>
+      <c r="ALI6" s="0"/>
+      <c r="ALJ6" s="0"/>
+      <c r="ALK6" s="0"/>
+      <c r="ALL6" s="0"/>
+      <c r="ALM6" s="0"/>
+      <c r="ALN6" s="0"/>
+      <c r="ALO6" s="0"/>
+      <c r="ALP6" s="0"/>
+      <c r="ALQ6" s="0"/>
+      <c r="ALR6" s="0"/>
+      <c r="ALS6" s="0"/>
+      <c r="ALT6" s="0"/>
+      <c r="ALU6" s="0"/>
+      <c r="ALV6" s="0"/>
+      <c r="ALW6" s="0"/>
+      <c r="ALX6" s="0"/>
+      <c r="ALY6" s="0"/>
+      <c r="ALZ6" s="0"/>
+      <c r="AMA6" s="0"/>
+      <c r="AMB6" s="0"/>
+      <c r="AMC6" s="0"/>
+      <c r="AMD6" s="0"/>
+      <c r="AME6" s="0"/>
+      <c r="AMF6" s="0"/>
+      <c r="AMG6" s="0"/>
+      <c r="AMH6" s="0"/>
+      <c r="AMI6" s="0"/>
+      <c r="AMJ6" s="0"/>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7"/>
+    <row r="7" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="12"/>
       <c r="B7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="11" t="s">
+      <c r="C7" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="15"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" s="14"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O7" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="I7" s="12"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="M7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="P7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q7" s="0"/>
+      <c r="R7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
@@ -4938,32 +6034,40 @@
       <c r="B8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="11" t="s">
+      <c r="C8" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O8" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="I8" s="12"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="M8" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="P8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q8" s="0"/>
+      <c r="R8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
@@ -4972,34 +6076,38 @@
       <c r="B9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="11" t="s">
+      <c r="C9" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O9" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="11" t="s">
+      <c r="P9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="I9" s="12"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="M9" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="N9" s="10" t="s">
-        <v>35</v>
-      </c>
+      <c r="Q9" s="0"/>
+      <c r="R9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
@@ -5008,69 +6116,146 @@
       <c r="B10" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="11" t="s">
+      <c r="C10" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="16"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O10" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="G10" s="10"/>
-      <c r="H10" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="I10" s="12"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="L10" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="M10" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="P10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q10" s="0"/>
+      <c r="R10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7" t="s">
+      <c r="A11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="H11" s="11" t="s">
+      <c r="F11" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="16"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O11" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="P11" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="I11" s="12"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="7" t="s">
+      <c r="Q11" s="0"/>
+      <c r="R11" s="0"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="12"/>
+      <c r="B12" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="15"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="J12" s="15"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O12" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="L11" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="M11" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="N11" s="14" t="s">
-        <v>31</v>
+      <c r="P12" s="18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" s="19" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="14"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O13" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="P13" s="18" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -5089,57 +6274,57 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:11"/>
+  <dimension ref="1:12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="15" width="55.5714285714286"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="15" width="7.83163265306122"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="15" width="6.20918367346939"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="15" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="15" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="16" width="16.1989795918367"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="15" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="15" width="16.1989795918367"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="15" width="19.1683673469388"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="15" width="7.02040816326531"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="21" width="54.1326530612245"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="21" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="21" width="6.75"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="21" width="9.44897959183673"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="21" width="6.61224489795918"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="22" width="22.2755102040816"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="21" width="20.3826530612245"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="21" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="21" width="21.1938775510204"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="21" width="11.3418367346939"/>
   </cols>
   <sheetData>
-    <row r="1" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="17" t="s">
+    <row r="1" s="26" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="G1" s="18" t="s">
+      <c r="B1" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="C1" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="D1" s="24" t="s">
         <v>47</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="27" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="0" t="n">
@@ -5154,10 +6339,10 @@
       <c r="E2" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="F2" s="0"/>
-      <c r="G2" s="0"/>
-      <c r="H2" s="0"/>
-      <c r="I2" s="0"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
       <c r="J2" s="0"/>
       <c r="K2" s="0"/>
       <c r="L2" s="0"/>
@@ -6175,200 +7360,205 @@
       <c r="AMJ2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="22" t="n">
+      <c r="B3" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="C3" s="22" t="n">
+      <c r="C3" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="D3" s="22" t="n">
+      <c r="D3" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="E3" s="22" t="n">
+      <c r="E3" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
       <c r="J3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="22" t="n">
+      <c r="B4" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="C4" s="22" t="n">
+      <c r="C4" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="D4" s="22" t="n">
+      <c r="D4" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="E4" s="22" t="n">
+      <c r="E4" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
       <c r="J4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="22" t="n">
+      <c r="B5" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="C5" s="22" t="n">
+      <c r="C5" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="D5" s="22" t="n">
+      <c r="D5" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="E5" s="22" t="n">
+      <c r="E5" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
       <c r="J5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="22" t="n">
+      <c r="B6" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="C6" s="22" t="n">
+      <c r="C6" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="D6" s="22" t="n">
+      <c r="D6" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="E6" s="22" t="n">
+      <c r="E6" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
       <c r="J6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="22" t="n">
+      <c r="B7" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="C7" s="22" t="n">
+      <c r="C7" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="D7" s="22" t="n">
+      <c r="D7" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="E7" s="22" t="n">
+      <c r="E7" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
       <c r="J7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="22" t="n">
+      <c r="A8" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="C8" s="22" t="n">
+      <c r="C8" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="D8" s="22" t="n">
+      <c r="D8" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="E8" s="22" t="n">
+      <c r="E8" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
       <c r="J8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="22" t="n">
+      <c r="A9" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="C9" s="22" t="n">
+      <c r="C9" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="D9" s="22" t="n">
+      <c r="D9" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="E9" s="22" t="n">
+      <c r="E9" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="24"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="31"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="22" t="n">
+      <c r="A10" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="C10" s="22" t="n">
+      <c r="C10" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="D10" s="22" t="n">
+      <c r="D10" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="E10" s="22" t="n">
+      <c r="E10" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="22" t="n">
+        <v>15</v>
+      </c>
+      <c r="B11" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="C11" s="22" t="n">
+      <c r="C11" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="D11" s="22" t="n">
+      <c r="D11" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="E11" s="22" t="n">
+      <c r="E11" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="21" t="s">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
